--- a/KatalonData/VLinkSmokeDataACH.xlsx
+++ b/KatalonData/VLinkSmokeDataACH.xlsx
@@ -1,28 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5726F34A-48E4-4ECB-B9A1-AD63C784B306}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{090AC336-65AB-429A-B057-3698832A4CFF}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="5" activeTab="5" xr2:uid="{388D034C-6DAD-459D-91DB-B99E6D26AB62}"/>
+    <workbookView activeTab="10" firstSheet="3" windowHeight="17640" windowWidth="29040" xWindow="-120" xr2:uid="{388D034C-6DAD-459D-91DB-B99E6D26AB62}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Debit" sheetId="1" r:id="rId1"/>
-    <sheet name="Debit-ZeroDollar" sheetId="2" r:id="rId2"/>
-    <sheet name="Debit-Void" sheetId="3" r:id="rId3"/>
-    <sheet name="Debit-Credit" sheetId="4" r:id="rId4"/>
-    <sheet name="Debit-Credit-Void" sheetId="5" r:id="rId5"/>
-    <sheet name="Debit-MRF" sheetId="6" r:id="rId6"/>
+    <sheet name="Debit" r:id="rId1" sheetId="1"/>
+    <sheet name="Debit-ZeroDollar" r:id="rId2" sheetId="2"/>
+    <sheet name="Debit-Void" r:id="rId3" sheetId="3"/>
+    <sheet name="Debit-Credit" r:id="rId4" sheetId="4"/>
+    <sheet name="Debit-Credit-Void" r:id="rId5" sheetId="5"/>
+    <sheet name="Debit-MRF" r:id="rId6" sheetId="6"/>
+    <sheet name="Void-MRF" r:id="rId7" sheetId="7"/>
+    <sheet name="Credit-MRF" r:id="rId8" sheetId="8"/>
+    <sheet name="Debit-RemID-Pipe" r:id="rId9" sheetId="9"/>
+    <sheet name="DebitVoid-RemID-Pipe" r:id="rId10" sheetId="10"/>
+    <sheet name="DebitCredit-RemID-Pipe" r:id="rId11" sheetId="11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -41,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="907" uniqueCount="109">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="296">
   <si>
     <t>Result</t>
   </si>
@@ -316,9 +321,6 @@
     <t>22201</t>
   </si>
   <si>
-    <t>Missing parameter: transaction_type</t>
-  </si>
-  <si>
     <t>Missing parameter: message_version</t>
   </si>
   <si>
@@ -328,52 +330,617 @@
     <t>Signon authentication error</t>
   </si>
   <si>
-    <t>Missing parameter: Response format</t>
-  </si>
-  <si>
-    <t>Missing parameter: check_type</t>
-  </si>
-  <si>
-    <t>Missing parameter: first name</t>
-  </si>
-  <si>
-    <t>Missing parameter: last name</t>
-  </si>
-  <si>
-    <t>Missing parameter: Address</t>
-  </si>
-  <si>
-    <t>Missing parameter: City</t>
-  </si>
-  <si>
-    <t>Missing parameter: state</t>
-  </si>
-  <si>
-    <t>Missing parameter: ZIP</t>
-  </si>
-  <si>
-    <t>Missing parameter:account_number</t>
-  </si>
-  <si>
-    <t>Missing parameter: account_type</t>
-  </si>
-  <si>
-    <t>Missing parameter: rtn</t>
-  </si>
-  <si>
-    <t>Missing parameter: amount</t>
-  </si>
-  <si>
-    <t>Missing parameter: sec</t>
-  </si>
-  <si>
-    <t>Missing parameter: compane_name</t>
+    <t>Invalid transaction type</t>
+  </si>
+  <si>
+    <t>response_format</t>
+  </si>
+  <si>
+    <t>Bank Account type not valid</t>
+  </si>
+  <si>
+    <t>check_first_name</t>
+  </si>
+  <si>
+    <t>check_last_name</t>
+  </si>
+  <si>
+    <t>check_zip</t>
+  </si>
+  <si>
+    <t>check_state</t>
+  </si>
+  <si>
+    <t>check_city</t>
+  </si>
+  <si>
+    <t>check_address</t>
+  </si>
+  <si>
+    <t>check_company, check_company</t>
+  </si>
+  <si>
+    <t>standard_entry_class</t>
+  </si>
+  <si>
+    <t>amount</t>
+  </si>
+  <si>
+    <t>routing_number</t>
+  </si>
+  <si>
+    <t>account_type</t>
+  </si>
+  <si>
+    <t>check_account</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:49:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:50:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:50:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:50:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:51:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:51:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:52:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:52:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:52:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:53:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:53:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:53:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:54:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:54:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:54:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:55:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:55:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:56:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 13:56:26 EST 2023</t>
+  </si>
+  <si>
+    <t>TranxID</t>
+  </si>
+  <si>
+    <t>OriginalTranType</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:16:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:16:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:16:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:17:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:17:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:17:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:17:38 EST 2023</t>
+  </si>
+  <si>
+    <t>check_first_name, check_last_name, check_address, check_city, check_state, che</t>
+  </si>
+  <si>
+    <t>12124566</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:25:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:25:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:25:43 EST 2023</t>
+  </si>
+  <si>
+    <t>12345678</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:56:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:56:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:56:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:56:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:57:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:57:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:57:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:58:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:58:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 16:58:33 EST 2023</t>
+  </si>
+  <si>
+    <t>response_format, check_first_name, check_last_name, check_address, check_city</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:01:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:01:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:15:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:16:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:16:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:16:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:17:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:17:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:17:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:26:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:27:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:27:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:28:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:28:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:29:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:29:32 EST 2023</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:36:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:37:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:37:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:38:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:38:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:39:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:39:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:44:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:45:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:45:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:45:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:46:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:46:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:46:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:47:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:47:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:47:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:48:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:48:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:48:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:48:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:49:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:49:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:50:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:50:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:51:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:51:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:52:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:52:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:53:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:53:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:54:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:54:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:55:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:55:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:56:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:57:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:57:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:58:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:59:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 17:59:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:00:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:01:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:01:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:02:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:02:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:03:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:03:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:04:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:04:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:05:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:05:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:05:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:06:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:06:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:06:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:07:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:07:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:08:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:08:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:09:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:09:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 18:10:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:16:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:16:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:17:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:17:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:17:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:18:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:18:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:18:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:19:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:19:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:19:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:19:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:20:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:20:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:20:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:21:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:21:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:22:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:22:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:23:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:23:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:24:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:24:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:25:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:26:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:26:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:27:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:27:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:28:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:29:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:29:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:30:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:31:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:31:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:32:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:33:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:33:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:34:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:34:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:35:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:35:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:36:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:36:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:36:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:37:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:37:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:37:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:38:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:38:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:38:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:39:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:39:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:40:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:40:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 19:41:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 20:06:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 20:06:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 20:07:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 20:07:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 20:08:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 20:09:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Jan 19 20:09:32 EST 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -422,23 +989,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -455,10 +1022,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -493,7 +1060,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -545,7 +1112,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -656,21 +1223,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -687,7 +1254,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -739,15 +1306,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme 2013 - 2022" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F1F3D5-37B4-4D18-A029-08788223EDF8}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F1F3D5-37B4-4D18-A029-08788223EDF8}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -755,20 +1322,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -826,7 +1393,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>234</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -873,7 +1440,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>235</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -920,7 +1487,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>39</v>
+        <v>236</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -967,7 +1534,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>35</v>
+        <v>237</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1014,7 +1581,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>238</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1061,7 +1628,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>37</v>
+        <v>239</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1108,7 +1675,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>240</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1151,17 +1718,837 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E6572-E2E1-46C7-90FD-43A4857206DE}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>282</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>283</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>284</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>285</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>234</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>286</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>234</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>287</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>234</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>288</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2">
+        <v>234</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DEB1C2-0C49-4D7C-B8E8-62617B390DA3}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>268</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>269</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>271</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>234</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>272</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>234</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>273</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>234</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>274</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2">
+        <v>234</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F77AD1-6B6A-4837-8643-295057715D44}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F77AD1-6B6A-4837-8643-295057715D44}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D4" sqref="D4:D8"/>
@@ -1169,20 +2556,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1240,7 +2627,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>41</v>
+        <v>241</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1287,7 +2674,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>42</v>
+        <v>242</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1334,7 +2721,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>243</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1381,7 +2768,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>244</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1428,7 +2815,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>45</v>
+        <v>245</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1475,7 +2862,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>246</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1522,7 +2909,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>47</v>
+        <v>247</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1565,13 +2952,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9B566-2104-4D91-9419-2327ED3CE217}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9B566-2104-4D91-9419-2327ED3CE217}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1579,20 +2966,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1650,7 +3037,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>248</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1697,7 +3084,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>49</v>
+        <v>249</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1744,7 +3131,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>250</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1791,7 +3178,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>251</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1838,7 +3225,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>252</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1885,7 +3272,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>53</v>
+        <v>253</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1932,7 +3319,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>54</v>
+        <v>254</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1975,13 +3362,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157F26B-1901-489C-8F43-B30441C51CC9}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157F26B-1901-489C-8F43-B30441C51CC9}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -1989,20 +3376,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2060,7 +3447,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>55</v>
+        <v>289</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2107,7 +3494,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>56</v>
+        <v>290</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2154,7 +3541,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>57</v>
+        <v>291</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2201,7 +3588,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>61</v>
+        <v>292</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2248,7 +3635,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>58</v>
+        <v>293</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2295,7 +3682,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>59</v>
+        <v>294</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2342,7 +3729,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>60</v>
+        <v>295</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2385,13 +3772,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09B7C8-12B8-4591-9AA2-4B82A69A8ABA}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09B7C8-12B8-4591-9AA2-4B82A69A8ABA}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="C12" sqref="C12"/>
@@ -2399,20 +3786,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2470,7 +3857,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>62</v>
+        <v>261</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2517,7 +3904,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>63</v>
+        <v>262</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2564,7 +3951,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>64</v>
+        <v>263</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2611,7 +3998,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>65</v>
+        <v>264</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2658,7 +4045,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>66</v>
+        <v>265</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2705,7 +4092,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>67</v>
+        <v>266</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2752,7 +4139,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>68</v>
+        <v>267</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2795,40 +4182,34 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA08836-3194-499F-99DE-E912B383D439}">
-  <dimension ref="A1:AC20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA08836-3194-499F-99DE-E912B383D439}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A20" sqref="A20:XFD20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E19" sqref="E19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.140625" style="3" customWidth="1"/>
-    <col min="6" max="7" width="9.7109375" style="3" customWidth="1"/>
-    <col min="8" max="8" width="12.5703125" style="3" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="12.5703125" style="3" collapsed="1"/>
-    <col min="11" max="11" width="12.5703125" style="3"/>
-    <col min="12" max="12" width="12.5703125" style="3" collapsed="1"/>
-    <col min="13" max="14" width="12.5703125" style="3"/>
-    <col min="15" max="15" width="14.85546875" style="3" bestFit="1" customWidth="1"/>
-    <col min="16" max="18" width="12.5703125" style="3"/>
-    <col min="19" max="24" width="12.5703125" style="3" collapsed="1"/>
-    <col min="25" max="29" width="12.5703125" style="3"/>
-    <col min="30" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="36.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" style="3" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="10" max="14" style="3" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2903,13 +4284,17 @@
       </c>
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A2"/>
-      <c r="B2"/>
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>109</v>
+      </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="G2" s="3" t="s">
         <v>83</v>
@@ -2964,13 +4349,17 @@
       </c>
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A3"/>
-      <c r="B3"/>
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>110</v>
+      </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>82</v>
@@ -3025,13 +4414,17 @@
       </c>
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A4"/>
-      <c r="B4"/>
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>111</v>
+      </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="F4" s="3" t="s">
         <v>82</v>
@@ -3087,13 +4480,17 @@
       </c>
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A5"/>
-      <c r="B5"/>
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>112</v>
+      </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F5" s="3" t="s">
         <v>82</v>
@@ -3149,13 +4546,17 @@
       </c>
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A6"/>
-      <c r="B6"/>
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>113</v>
+      </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="F6" s="3" t="s">
         <v>82</v>
@@ -3211,8 +4612,12 @@
       </c>
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A7"/>
-      <c r="B7"/>
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>114</v>
+      </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
@@ -3273,8 +4678,12 @@
       </c>
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A8"/>
-      <c r="B8"/>
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>115</v>
+      </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
       </c>
@@ -3334,8 +4743,12 @@
       </c>
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A9"/>
-      <c r="B9"/>
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>116</v>
+      </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
       </c>
@@ -3395,8 +4808,12 @@
       </c>
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A10"/>
-      <c r="B10"/>
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>117</v>
+      </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
       </c>
@@ -3456,13 +4873,17 @@
       </c>
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A11"/>
-      <c r="B11"/>
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>118</v>
+      </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="F11" s="3" t="s">
         <v>82</v>
@@ -3517,13 +4938,17 @@
       </c>
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A12"/>
-      <c r="B12"/>
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>119</v>
+      </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="F12" s="3" t="s">
         <v>82</v>
@@ -3578,13 +5003,17 @@
       </c>
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A13"/>
-      <c r="B13"/>
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>120</v>
+      </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="F13" s="3" t="s">
         <v>82</v>
@@ -3639,13 +5068,17 @@
       </c>
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A14"/>
-      <c r="B14"/>
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14" t="s">
+        <v>121</v>
+      </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E14" s="3" t="s">
-        <v>102</v>
+        <v>99</v>
       </c>
       <c r="F14" s="3" t="s">
         <v>82</v>
@@ -3700,13 +5133,17 @@
       </c>
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A15"/>
-      <c r="B15"/>
+      <c r="A15" t="s">
+        <v>32</v>
+      </c>
+      <c r="B15" t="s">
+        <v>122</v>
+      </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E15" s="3" t="s">
-        <v>103</v>
+        <v>108</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>82</v>
@@ -3761,13 +5198,17 @@
       </c>
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A16"/>
-      <c r="B16"/>
+      <c r="A16" t="s">
+        <v>32</v>
+      </c>
+      <c r="B16" t="s">
+        <v>123</v>
+      </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E16" s="3" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="F16" s="3" t="s">
         <v>82</v>
@@ -3822,13 +5263,17 @@
       </c>
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A17"/>
-      <c r="B17"/>
+      <c r="A17" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" t="s">
+        <v>124</v>
+      </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E17" s="3" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="F17" s="3" t="s">
         <v>82</v>
@@ -3883,13 +5328,17 @@
       </c>
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A18"/>
-      <c r="B18"/>
+      <c r="A18" t="s">
+        <v>32</v>
+      </c>
+      <c r="B18" t="s">
+        <v>125</v>
+      </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="F18" s="3" t="s">
         <v>82</v>
@@ -3944,13 +5393,17 @@
       </c>
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A19"/>
-      <c r="B19"/>
+      <c r="A19" t="s">
+        <v>32</v>
+      </c>
+      <c r="B19" t="s">
+        <v>126</v>
+      </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>82</v>
@@ -4005,13 +5458,17 @@
       </c>
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
-      <c r="A20"/>
-      <c r="B20"/>
+      <c r="A20" t="s">
+        <v>32</v>
+      </c>
+      <c r="B20" t="s">
+        <v>127</v>
+      </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E20" s="3" t="s">
-        <v>108</v>
+        <v>103</v>
       </c>
       <c r="F20" s="3" t="s">
         <v>82</v>
@@ -4067,6 +5524,1556 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06482146-3F5D-47DF-9B90-B5700E0EE57E}">
+  <dimension ref="A1:P11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:XFD1048576"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="36.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" style="3" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="10" max="14" style="3" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="19.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="12.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="2" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2">
+        <v>234</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="3" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="2">
+        <v>234</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="4" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="5" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="2">
+        <v>234</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="6" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="2">
+        <v>234</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="7" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="2">
+        <v>234</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="8" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="2">
+        <v>234</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="9" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>139</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2">
+        <v>234</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="10" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>140</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2">
+        <v>234</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="11" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>141</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="2">
+        <v>234</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>82</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F6E92C-F0B2-419E-A8FB-B67C2DE09DC4}">
+  <dimension ref="A1:R13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2:D13"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="36.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" style="3" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="10" max="15" style="3" width="12.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="15.0" collapsed="true"/>
+    <col min="18" max="16384" style="3" width="12.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>70</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>71</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>128</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>143</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="G2" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H2" s="2">
+        <v>234</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M2" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="F3" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="H3" s="2">
+        <v>234</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M3" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="F4" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G4" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H4" s="2"/>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M4" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F5" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G5" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H5" s="2">
+        <v>234</v>
+      </c>
+      <c r="I5" s="2"/>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M5" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="F6" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G6" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H6" s="2">
+        <v>234</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M6" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>154</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="F7" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G7" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H7" s="2">
+        <v>234</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="2"/>
+      <c r="L7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M7" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>148</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="3" t="s">
+        <v>96</v>
+      </c>
+      <c r="F8" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G8" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H8" s="2">
+        <v>234</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N8" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>32</v>
+      </c>
+      <c r="B9" t="s">
+        <v>149</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E9" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G9" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H9" s="2">
+        <v>234</v>
+      </c>
+      <c r="I9" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K9" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L9" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="N9" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O9" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P9" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q9" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>32</v>
+      </c>
+      <c r="B10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D10" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E10" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F10" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G10" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H10" s="2">
+        <v>234</v>
+      </c>
+      <c r="I10" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J10" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K10" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L10" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M10" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N10" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="P10" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q10" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>32</v>
+      </c>
+      <c r="B11" t="s">
+        <v>150</v>
+      </c>
+      <c r="D11" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E11" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F11" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G11" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H11" s="2">
+        <v>234</v>
+      </c>
+      <c r="I11" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J11" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K11" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L11" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M11" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="O11" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P11" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="Q11" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
+        <v>151</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E12" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F12" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G12" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H12" s="2">
+        <v>234</v>
+      </c>
+      <c r="I12" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J12" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K12" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L12" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M12" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N12" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O12" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q12" s="3" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>32</v>
+      </c>
+      <c r="B13" t="s">
+        <v>152</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E13" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="G13" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="H13" s="2">
+        <v>234</v>
+      </c>
+      <c r="I13" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J13" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K13" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="L13" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="M13" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="O13" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="P13" s="3" t="s">
+        <v>142</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="1" type="noConversion"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475D3EEC-13EC-491F-9A96-22DFFF4616CF}">
+  <dimension ref="A1:R8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>275</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>276</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>278</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>234</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>279</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>234</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>280</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>234</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>281</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2">
+        <v>234</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/VLinkSmokeDataACH.xlsx
+++ b/KatalonData/VLinkSmokeDataACH.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2077" uniqueCount="296">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="394">
   <si>
     <t>Result</t>
   </si>
@@ -934,6 +934,300 @@
   </si>
   <si>
     <t>Thu Jan 19 20:09:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:06:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:06:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:06:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:06:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:06:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:07:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:07:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:07:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:07:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:08:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:08:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:08:36 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:08:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:09:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:09:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:09:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:10:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:10:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:10:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:11:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:11:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:12:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:12:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:12:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:13:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:13:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:14:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:14:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:14:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:15:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:16:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:16:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:17:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:17:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:18:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:18:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:19:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:19:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:19:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:20:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:20:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:20:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:21:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:21:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:22:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:22:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:22:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:23:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:23:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:23:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:24:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:24:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:24:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:25:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:25:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:25:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:25:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:26:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:26:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Fail</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:26:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:26:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:26:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:26:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:27:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:27:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:27:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:27:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:27:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:28:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:28:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:28:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:28:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:29:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:29:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:29:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:29:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:29:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:30:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:30:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:31:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:31:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:31:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:32:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:32:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:33:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:33:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:33:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:33:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:33:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:34:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:34:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:34:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:35:15 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:35:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:36:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:36:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 08 19:36:50 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -1393,7 +1687,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>234</v>
+        <v>296</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1440,7 +1734,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>235</v>
+        <v>297</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1487,7 +1781,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>236</v>
+        <v>298</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1534,7 +1828,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>237</v>
+        <v>299</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1581,7 +1875,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>238</v>
+        <v>300</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1628,7 +1922,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>239</v>
+        <v>301</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1675,7 +1969,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>240</v>
+        <v>302</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1807,7 +2101,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>282</v>
+        <v>387</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1854,7 +2148,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>283</v>
+        <v>388</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1901,7 +2195,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>284</v>
+        <v>389</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1948,7 +2242,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>285</v>
+        <v>390</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1995,7 +2289,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>286</v>
+        <v>391</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2042,7 +2336,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>287</v>
+        <v>392</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2089,7 +2383,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>288</v>
+        <v>393</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2217,7 +2511,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>268</v>
+        <v>373</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2264,7 +2558,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>269</v>
+        <v>374</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2311,7 +2605,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>270</v>
+        <v>375</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2358,7 +2652,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>271</v>
+        <v>376</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2405,7 +2699,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>272</v>
+        <v>377</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2452,7 +2746,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>273</v>
+        <v>378</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2499,7 +2793,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>274</v>
+        <v>379</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2627,7 +2921,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>241</v>
+        <v>303</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2674,7 +2968,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>242</v>
+        <v>304</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2721,7 +3015,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>243</v>
+        <v>305</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2768,7 +3062,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>244</v>
+        <v>306</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2815,7 +3109,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>245</v>
+        <v>307</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2862,7 +3156,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>246</v>
+        <v>308</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2909,7 +3203,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>247</v>
+        <v>309</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3037,7 +3331,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>248</v>
+        <v>310</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3084,7 +3378,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>249</v>
+        <v>311</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3131,7 +3425,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>250</v>
+        <v>312</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3178,7 +3472,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>251</v>
+        <v>313</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3225,7 +3519,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>252</v>
+        <v>314</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3272,7 +3566,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>253</v>
+        <v>315</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3319,7 +3613,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>254</v>
+        <v>316</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3447,7 +3741,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>289</v>
+        <v>317</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3494,7 +3788,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>290</v>
+        <v>318</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3541,7 +3835,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>291</v>
+        <v>319</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3588,7 +3882,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>292</v>
+        <v>320</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3635,7 +3929,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>293</v>
+        <v>321</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3682,7 +3976,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>294</v>
+        <v>322</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3729,7 +4023,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>295</v>
+        <v>323</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3857,7 +4151,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>261</v>
+        <v>324</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3904,7 +4198,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>262</v>
+        <v>325</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3951,7 +4245,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>263</v>
+        <v>326</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3998,7 +4292,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>264</v>
+        <v>327</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4045,7 +4339,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>265</v>
+        <v>328</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4092,7 +4386,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>266</v>
+        <v>329</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4139,7 +4433,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>267</v>
+        <v>330</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4288,7 +4582,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>331</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4353,7 +4647,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>332</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4418,7 +4712,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>333</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4484,7 +4778,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>334</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4550,7 +4844,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>335</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4616,7 +4910,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>336</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4682,7 +4976,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>337</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4747,7 +5041,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>116</v>
+        <v>338</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -4812,7 +5106,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>117</v>
+        <v>339</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -4877,7 +5171,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>118</v>
+        <v>340</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -4942,7 +5236,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>119</v>
+        <v>341</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -5007,7 +5301,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>120</v>
+        <v>342</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -5072,7 +5366,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>121</v>
+        <v>343</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
@@ -5137,7 +5431,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>122</v>
+        <v>344</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -5202,7 +5496,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>123</v>
+        <v>345</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -5267,7 +5561,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>124</v>
+        <v>346</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -5332,7 +5626,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>125</v>
+        <v>347</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -5397,7 +5691,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>126</v>
+        <v>348</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
@@ -5462,7 +5756,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>127</v>
+        <v>349</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -5603,7 +5897,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>350</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -5644,7 +5938,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>351</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -5685,7 +5979,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>352</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -5727,7 +6021,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>353</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -5769,7 +6063,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>354</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -5808,10 +6102,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>356</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -5853,7 +6147,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>357</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -5894,7 +6188,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>139</v>
+        <v>358</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -5935,7 +6229,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>140</v>
+        <v>359</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -5976,7 +6270,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>141</v>
+        <v>360</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -6099,7 +6393,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>143</v>
+        <v>361</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6146,7 +6440,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>144</v>
+        <v>362</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6193,7 +6487,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>145</v>
+        <v>363</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6241,7 +6535,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>146</v>
+        <v>364</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -6289,7 +6583,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>147</v>
+        <v>365</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -6337,7 +6631,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>366</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -6385,7 +6679,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>148</v>
+        <v>367</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6432,7 +6726,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>149</v>
+        <v>368</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -6479,7 +6773,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>155</v>
+        <v>369</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -6526,7 +6820,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>150</v>
+        <v>370</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -6573,7 +6867,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>151</v>
+        <v>371</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -6620,7 +6914,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>152</v>
+        <v>372</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -6749,7 +7043,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>275</v>
+        <v>380</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6796,7 +7090,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>276</v>
+        <v>381</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6843,7 +7137,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>277</v>
+        <v>382</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6890,7 +7184,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>278</v>
+        <v>383</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -6937,7 +7231,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>279</v>
+        <v>384</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -6984,7 +7278,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>385</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -7031,7 +7325,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>281</v>
+        <v>386</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>

--- a/KatalonData/VLinkSmokeDataACH.xlsx
+++ b/KatalonData/VLinkSmokeDataACH.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2465" uniqueCount="394">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3101" uniqueCount="553">
   <si>
     <t>Result</t>
   </si>
@@ -1228,6 +1228,483 @@
   </si>
   <si>
     <t>Wed Feb 08 19:36:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:54:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:54:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:54:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:55:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:55:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:55:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:55:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:56:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:56:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:56:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:56:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:57:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:57:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:57:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:57:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:58:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:58:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:59:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:59:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 22:59:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:00:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:00:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:01:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:01:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:01:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:02:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:02:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:03:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:03:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:04:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:04:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:05:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:05:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:06:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:06:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:07:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:07:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:08:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:08:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:08:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:09:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:09:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:09:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:10:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:10:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:11:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:11:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:11:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:12:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:12:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:12:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:13:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:13:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:13:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:14:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:14:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:14:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:14:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:14:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:15:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:15:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:15:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:15:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:15:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:16:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:16:18 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:16:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:16:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:16:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:17:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:17:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:17:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:17:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:18:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:18:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:18:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:18:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:19:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:19:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:19:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:20:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:20:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:21:09 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:21:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:21:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:22:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:22:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:22:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:22:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:23:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:23:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:23:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:24:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:24:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:24:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:25:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Wed Feb 15 23:25:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:33:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:34:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:34:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:34:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:34:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:35:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:35:23 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:35:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:35:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:36:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:36:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:36:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:36:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:37:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:42:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:42:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:43:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:43:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:44:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:44:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:44:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:45:08 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:45:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:45:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:46:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:46:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:46:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:47:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:47:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:48:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:48:22 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:48:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:49:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:49:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:49:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:49:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:50:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:50:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:50:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:50:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:50:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:51:05 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:51:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:51:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:51:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:51:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:52:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:52:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:52:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:52:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:53:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:53:19 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:53:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:53:47 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:54:00 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:55:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:56:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:56:29 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:56:44 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:56:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:57:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Thu Feb 16 19:57:28 EST 2023</t>
   </si>
 </sst>
 </file>
@@ -1684,10 +2161,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>296</v>
+        <v>491</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1731,10 +2208,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
-        <v>297</v>
+        <v>492</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1778,10 +2255,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>298</v>
+        <v>493</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1825,10 +2302,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
-        <v>299</v>
+        <v>494</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1872,10 +2349,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>300</v>
+        <v>495</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1919,10 +2396,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>301</v>
+        <v>496</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1966,10 +2443,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>302</v>
+        <v>497</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2101,7 +2578,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>387</v>
+        <v>484</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2148,7 +2625,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>388</v>
+        <v>485</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2195,7 +2672,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>389</v>
+        <v>486</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2242,7 +2719,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>390</v>
+        <v>487</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2289,7 +2766,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>391</v>
+        <v>488</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2336,7 +2813,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>392</v>
+        <v>489</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2383,7 +2860,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>393</v>
+        <v>490</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2511,7 +2988,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>373</v>
+        <v>470</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2558,7 +3035,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>374</v>
+        <v>471</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2605,7 +3082,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>375</v>
+        <v>472</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2652,7 +3129,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>376</v>
+        <v>473</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2699,7 +3176,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>377</v>
+        <v>474</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2746,7 +3223,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>378</v>
+        <v>475</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2793,7 +3270,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>379</v>
+        <v>476</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2918,10 +3395,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>303</v>
+        <v>498</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2965,10 +3442,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
-        <v>304</v>
+        <v>499</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3012,10 +3489,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>305</v>
+        <v>500</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3059,10 +3536,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
-        <v>306</v>
+        <v>501</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3106,10 +3583,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>307</v>
+        <v>502</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3153,10 +3630,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>308</v>
+        <v>503</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3200,10 +3677,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>309</v>
+        <v>504</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3331,7 +3808,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>310</v>
+        <v>408</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3378,7 +3855,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>311</v>
+        <v>409</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3425,7 +3902,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>312</v>
+        <v>410</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3472,7 +3949,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>313</v>
+        <v>411</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3519,7 +3996,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>314</v>
+        <v>412</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3566,7 +4043,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>315</v>
+        <v>413</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3613,7 +4090,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>316</v>
+        <v>414</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3741,7 +4218,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>317</v>
+        <v>415</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3788,7 +4265,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>318</v>
+        <v>416</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3835,7 +4312,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>319</v>
+        <v>417</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3882,7 +4359,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>320</v>
+        <v>418</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3929,7 +4406,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>321</v>
+        <v>419</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3976,7 +4453,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>322</v>
+        <v>420</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4023,7 +4500,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>323</v>
+        <v>421</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4151,7 +4628,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>324</v>
+        <v>422</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4198,7 +4675,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>325</v>
+        <v>423</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4245,7 +4722,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>326</v>
+        <v>424</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4292,7 +4769,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>327</v>
+        <v>425</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4339,7 +4816,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>328</v>
+        <v>426</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4386,7 +4863,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>329</v>
+        <v>427</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4433,7 +4910,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>330</v>
+        <v>428</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4579,10 +5056,10 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>331</v>
+        <v>505</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4644,10 +5121,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
-        <v>332</v>
+        <v>506</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4709,10 +5186,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>333</v>
+        <v>507</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4775,10 +5252,10 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
-        <v>334</v>
+        <v>508</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4841,10 +5318,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>335</v>
+        <v>509</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4907,10 +5384,10 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>336</v>
+        <v>510</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4973,10 +5450,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>337</v>
+        <v>511</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -5038,10 +5515,10 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
-        <v>338</v>
+        <v>512</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -5103,10 +5580,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>339</v>
+        <v>513</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -5168,10 +5645,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>340</v>
+        <v>514</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -5233,10 +5710,10 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
-        <v>341</v>
+        <v>515</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -5298,10 +5775,10 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
-        <v>342</v>
+        <v>516</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -5363,10 +5840,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B14" t="s">
-        <v>343</v>
+        <v>517</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
@@ -5428,10 +5905,10 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B15" t="s">
-        <v>344</v>
+        <v>518</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -5493,10 +5970,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B16" t="s">
-        <v>345</v>
+        <v>519</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -5558,10 +6035,10 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B17" t="s">
-        <v>346</v>
+        <v>520</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -5623,10 +6100,10 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B18" t="s">
-        <v>347</v>
+        <v>521</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -5688,10 +6165,10 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B19" t="s">
-        <v>348</v>
+        <v>522</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
@@ -5753,10 +6230,10 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B20" t="s">
-        <v>349</v>
+        <v>523</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -5894,10 +6371,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>350</v>
+        <v>524</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -5935,10 +6412,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
-        <v>351</v>
+        <v>525</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -5976,10 +6453,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>352</v>
+        <v>526</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6018,10 +6495,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
-        <v>353</v>
+        <v>527</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -6060,10 +6537,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>354</v>
+        <v>528</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -6105,7 +6582,7 @@
         <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>356</v>
+        <v>529</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -6144,10 +6621,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>357</v>
+        <v>530</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6185,10 +6662,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
-        <v>358</v>
+        <v>531</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -6226,10 +6703,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>359</v>
+        <v>532</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -6267,10 +6744,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>360</v>
+        <v>533</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -6390,10 +6867,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>361</v>
+        <v>534</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6437,10 +6914,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
-        <v>362</v>
+        <v>535</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6484,10 +6961,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>363</v>
+        <v>536</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6532,10 +7009,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
-        <v>364</v>
+        <v>537</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -6580,10 +7057,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>365</v>
+        <v>538</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -6628,10 +7105,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>366</v>
+        <v>539</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -6676,10 +7153,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>367</v>
+        <v>540</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6723,10 +7200,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B9" t="s">
-        <v>368</v>
+        <v>541</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -6770,10 +7247,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B10" t="s">
-        <v>369</v>
+        <v>542</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -6817,10 +7294,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B11" t="s">
-        <v>370</v>
+        <v>543</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -6864,10 +7341,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B12" t="s">
-        <v>371</v>
+        <v>544</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -6911,10 +7388,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B13" t="s">
-        <v>372</v>
+        <v>545</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -7040,10 +7517,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B2" t="s">
-        <v>380</v>
+        <v>546</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -7087,10 +7564,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B3" t="s">
-        <v>381</v>
+        <v>547</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -7134,10 +7611,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B4" t="s">
-        <v>382</v>
+        <v>548</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -7181,10 +7658,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B5" t="s">
-        <v>383</v>
+        <v>549</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -7228,10 +7705,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B6" t="s">
-        <v>384</v>
+        <v>550</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -7275,10 +7752,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B7" t="s">
-        <v>385</v>
+        <v>551</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -7322,10 +7799,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>355</v>
       </c>
       <c r="B8" t="s">
-        <v>386</v>
+        <v>552</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>

--- a/KatalonData/VLinkSmokeDataACH.xlsx
+++ b/KatalonData/VLinkSmokeDataACH.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{34FE0EF7-1C2D-4A17-B239-2F9FDFAAC469}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{34FE0EF7-1C2D-4A17-B239-2F9FDFAAC469}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="-28920" yWindow="-120" windowWidth="29040" windowHeight="17640" firstSheet="3" activeTab="10" xr2:uid="{388D034C-6DAD-459D-91DB-B99E6D26AB62}"/>
+    <workbookView activeTab="10" firstSheet="3" windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{388D034C-6DAD-459D-91DB-B99E6D26AB62}" yWindow="-120"/>
   </bookViews>
   <sheets>
-    <sheet name="Debit" sheetId="1" r:id="rId1"/>
-    <sheet name="Debit-ZeroDollar" sheetId="2" r:id="rId2"/>
-    <sheet name="Debit-Void" sheetId="3" r:id="rId3"/>
-    <sheet name="Debit-Credit" sheetId="4" r:id="rId4"/>
-    <sheet name="Debit-Credit-Void" sheetId="5" r:id="rId5"/>
-    <sheet name="Debit-MRF" sheetId="6" r:id="rId6"/>
-    <sheet name="Void-MRF" sheetId="7" r:id="rId7"/>
-    <sheet name="Credit-MRF" sheetId="8" r:id="rId8"/>
-    <sheet name="Debit-RemID-Pipe" sheetId="9" r:id="rId9"/>
-    <sheet name="DebitVoid-RemID-Pipe" sheetId="10" r:id="rId10"/>
-    <sheet name="DebitCredit-RemID-Pipe" sheetId="11" r:id="rId11"/>
+    <sheet name="Debit" r:id="rId1" sheetId="1"/>
+    <sheet name="Debit-ZeroDollar" r:id="rId2" sheetId="2"/>
+    <sheet name="Debit-Void" r:id="rId3" sheetId="3"/>
+    <sheet name="Debit-Credit" r:id="rId4" sheetId="4"/>
+    <sheet name="Debit-Credit-Void" r:id="rId5" sheetId="5"/>
+    <sheet name="Debit-MRF" r:id="rId6" sheetId="6"/>
+    <sheet name="Void-MRF" r:id="rId7" sheetId="7"/>
+    <sheet name="Credit-MRF" r:id="rId8" sheetId="8"/>
+    <sheet name="Debit-RemID-Pipe" r:id="rId9" sheetId="9"/>
+    <sheet name="DebitVoid-RemID-Pipe" r:id="rId10" sheetId="10"/>
+    <sheet name="DebitCredit-RemID-Pipe" r:id="rId11" sheetId="11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="237">
   <si>
     <t>Result</t>
   </si>
@@ -586,12 +586,184 @@
   </si>
   <si>
     <t>tUmWBiLUx</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:36:43 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:36:58 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:37:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:37:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:37:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:37:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:38:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:38:24 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:38:39 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:38:53 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:39:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:39:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:39:35 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:39:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:40:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:40:28 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:40:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:41:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:41:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:42:04 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:42:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:42:51 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:43:16 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:43:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:44:06 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:44:31 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:44:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:45:21 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:45:46 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:46:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:46:55 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:47:30 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:48:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:48:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:49:12 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:49:48 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:50:13 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:50:37 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:51:02 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:51:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:51:52 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:52:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:52:42 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:52:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:53:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:53:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:53:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:53:56 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:54:11 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:54:26 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:54:50 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:55:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:55:38 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:56:01 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:56:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Feb 28 18:56:49 EST 2023</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -640,23 +812,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -673,10 +845,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -711,7 +883,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -763,7 +935,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -874,21 +1046,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -905,7 +1077,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -957,15 +1129,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F1F3D5-37B4-4D18-A029-08788223EDF8}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F1F3D5-37B4-4D18-A029-08788223EDF8}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -973,20 +1145,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1041,10 +1213,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>181</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1088,10 +1260,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>182</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1135,10 +1307,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>183</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1182,10 +1354,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>184</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1229,10 +1401,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>185</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1276,10 +1448,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>186</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1323,10 +1495,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>187</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1369,8 +1541,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1378,8 +1550,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E6572-E2E1-46C7-90FD-43A4857206DE}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E6572-E2E1-46C7-90FD-43A4857206DE}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -1387,20 +1559,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1458,7 +1630,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>230</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1505,7 +1677,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>231</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1552,7 +1724,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>232</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1599,7 +1771,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>233</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1646,7 +1818,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>234</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1693,7 +1865,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>235</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1740,7 +1912,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>236</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1783,13 +1955,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DEB1C2-0C49-4D7C-B8E8-62617B390DA3}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DEB1C2-0C49-4D7C-B8E8-62617B390DA3}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -1797,20 +1969,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1868,7 +2040,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>216</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1915,7 +2087,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>217</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1962,7 +2134,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>218</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2009,7 +2181,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>219</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2056,7 +2228,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>220</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2103,7 +2275,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>221</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2150,7 +2322,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>222</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2193,13 +2365,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F77AD1-6B6A-4837-8643-295057715D44}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F77AD1-6B6A-4837-8643-295057715D44}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -2207,20 +2379,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2275,10 +2447,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>188</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2322,10 +2494,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>189</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2369,10 +2541,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2416,10 +2588,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>191</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2463,10 +2635,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>192</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2510,10 +2682,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>193</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2557,10 +2729,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>194</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2603,13 +2775,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9B566-2104-4D91-9419-2327ED3CE217}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9B566-2104-4D91-9419-2327ED3CE217}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -2617,20 +2789,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2688,7 +2860,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>195</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2735,7 +2907,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>196</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2782,7 +2954,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>197</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2829,7 +3001,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>198</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2876,7 +3048,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>199</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2923,7 +3095,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>200</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2970,7 +3142,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>201</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3013,13 +3185,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157F26B-1901-489C-8F43-B30441C51CC9}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157F26B-1901-489C-8F43-B30441C51CC9}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -3027,20 +3199,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3098,7 +3270,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>88</v>
+        <v>202</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3145,7 +3317,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>89</v>
+        <v>203</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3192,7 +3364,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>90</v>
+        <v>204</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3239,7 +3411,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>91</v>
+        <v>205</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3286,7 +3458,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>92</v>
+        <v>206</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3333,7 +3505,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>93</v>
+        <v>207</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3380,7 +3552,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>94</v>
+        <v>208</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3423,13 +3595,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09B7C8-12B8-4591-9AA2-4B82A69A8ABA}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09B7C8-12B8-4591-9AA2-4B82A69A8ABA}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -3437,20 +3609,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3508,7 +3680,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>95</v>
+        <v>209</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3555,7 +3727,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>96</v>
+        <v>210</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3602,7 +3774,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>97</v>
+        <v>211</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3649,7 +3821,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>98</v>
+        <v>212</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3696,7 +3868,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>99</v>
+        <v>213</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3743,7 +3915,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>100</v>
+        <v>214</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3790,7 +3962,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>101</v>
+        <v>215</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3833,13 +4005,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA08836-3194-499F-99DE-E912B383D439}">
-  <dimension ref="A1:X20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA08836-3194-499F-99DE-E912B383D439}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -3847,20 +4019,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="3" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="14" width="12.5703125" style="3" collapsed="1"/>
-    <col min="15" max="15" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="36.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" style="3" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="10" max="14" style="3" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5175,13 +5347,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06482146-3F5D-47DF-9B90-B5700E0EE57E}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06482146-3F5D-47DF-9B90-B5700E0EE57E}">
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection sqref="A1:XFD1048576"/>
@@ -5189,20 +5361,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="3" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="14" width="12.5703125" style="3" collapsed="1"/>
-    <col min="15" max="15" width="19.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="36.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" style="3" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="10" max="14" style="3" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="19.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5664,13 +5836,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F6E92C-F0B2-419E-A8FB-B67C2DE09DC4}">
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F6E92C-F0B2-419E-A8FB-B67C2DE09DC4}">
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D13"/>
@@ -5678,21 +5850,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="3" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="15" width="12.5703125" style="3" collapsed="1"/>
-    <col min="16" max="16" width="15.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="36.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" style="3" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="10" max="15" style="3" width="12.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="15.0" collapsed="true"/>
+    <col min="18" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6315,13 +6487,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475D3EEC-13EC-491F-9A96-22DFFF4616CF}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475D3EEC-13EC-491F-9A96-22DFFF4616CF}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -6329,20 +6501,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6397,10 +6569,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>171</v>
+        <v>223</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6444,10 +6616,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>172</v>
+        <v>224</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6491,10 +6663,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>173</v>
+        <v>225</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6538,10 +6710,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>174</v>
+        <v>226</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -6585,10 +6757,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>175</v>
+        <v>227</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -6632,10 +6804,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>176</v>
+        <v>228</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -6679,10 +6851,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>177</v>
+        <v>229</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6725,6 +6897,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/VLinkSmokeDataACH.xlsx
+++ b/KatalonData/VLinkSmokeDataACH.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1815" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="356">
   <si>
     <t>Result</t>
   </si>
@@ -757,6 +757,363 @@
   </si>
   <si>
     <t>Tue Feb 28 18:56:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:33:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:34:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:34:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:34:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:34:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:35:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:35:15 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:35:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:35:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:35:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:36:12 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:36:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:36:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:36:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:37:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:37:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:37:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:38:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:38:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:39:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:39:32 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:39:57 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:40:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:40:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:41:11 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:41:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:42:01 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:42:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:42:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:43:26 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:44:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:44:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:45:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:45:42 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:46:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:46:51 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:47:16 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:47:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:48:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:48:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:48:55 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:49:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:49:47 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:50:02 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 21:50:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 22:00:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 22:10:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 22:20:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Mon Apr 24 22:29:59 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:47:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:47:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:47:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:47:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:48:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:48:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:48:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:48:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:49:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:49:36 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:50:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:50:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:50:46 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 13:51:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:22:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:22:27 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:22:41 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:22:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:23:10 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:23:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:23:39 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:23:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:24:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:24:21 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:24:35 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:24:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:25:04 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:25:18 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:25:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:25:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:26:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:26:44 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:27:07 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:27:31 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:27:54 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:28:19 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:28:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:29:08 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:29:33 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:29:58 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:30:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:30:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:31:14 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:31:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:32:22 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:32:56 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:33:30 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:34:05 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:34:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:35:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:35:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:36:03 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:36:28 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:36:53 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:37:17 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:37:43 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:38:09 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:38:23 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:38:38 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:38:52 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:39:06 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:39:20 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:39:34 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:39:49 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:40:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:40:37 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:41:00 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:41:24 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:41:48 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Apr 25 14:42:13 EDT 2023</t>
   </si>
 </sst>
 </file>
@@ -1216,7 +1573,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>181</v>
+        <v>300</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1263,7 +1620,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>182</v>
+        <v>301</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1310,7 +1667,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>183</v>
+        <v>302</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1357,7 +1714,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>184</v>
+        <v>303</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1404,7 +1761,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>185</v>
+        <v>304</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1451,7 +1808,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>186</v>
+        <v>305</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1498,7 +1855,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>187</v>
+        <v>306</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1630,7 +1987,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>349</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1677,7 +2034,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>231</v>
+        <v>350</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1724,7 +2081,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>232</v>
+        <v>351</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1771,7 +2128,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>233</v>
+        <v>352</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1818,7 +2175,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>234</v>
+        <v>353</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1865,7 +2222,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>235</v>
+        <v>354</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1912,7 +2269,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>236</v>
+        <v>355</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2040,7 +2397,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>216</v>
+        <v>335</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2087,7 +2444,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>217</v>
+        <v>336</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2134,7 +2491,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>218</v>
+        <v>337</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2181,7 +2538,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>219</v>
+        <v>338</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2228,7 +2585,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>220</v>
+        <v>339</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2275,7 +2632,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>221</v>
+        <v>340</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2322,7 +2679,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>222</v>
+        <v>341</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2450,7 +2807,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>188</v>
+        <v>307</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2497,7 +2854,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>189</v>
+        <v>308</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2544,7 +2901,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>190</v>
+        <v>309</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2591,7 +2948,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>191</v>
+        <v>310</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2638,7 +2995,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>192</v>
+        <v>311</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2685,7 +3042,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>193</v>
+        <v>312</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2732,7 +3089,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>194</v>
+        <v>313</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2860,7 +3217,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>195</v>
+        <v>314</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2907,7 +3264,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>196</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2954,7 +3311,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>197</v>
+        <v>316</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3001,7 +3358,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>198</v>
+        <v>317</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3048,7 +3405,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>199</v>
+        <v>318</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3095,7 +3452,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>200</v>
+        <v>319</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3142,7 +3499,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>201</v>
+        <v>320</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3270,7 +3627,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>202</v>
+        <v>321</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3317,7 +3674,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>203</v>
+        <v>322</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3364,7 +3721,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>204</v>
+        <v>323</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3411,7 +3768,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>205</v>
+        <v>324</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3458,7 +3815,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>206</v>
+        <v>325</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3505,7 +3862,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>207</v>
+        <v>326</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3552,7 +3909,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>208</v>
+        <v>327</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3680,7 +4037,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>209</v>
+        <v>328</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3727,7 +4084,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>210</v>
+        <v>329</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3774,7 +4131,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>211</v>
+        <v>330</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3821,7 +4178,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>212</v>
+        <v>331</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3868,7 +4225,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>213</v>
+        <v>332</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3915,7 +4272,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>214</v>
+        <v>333</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3962,7 +4319,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>215</v>
+        <v>334</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6572,7 +6929,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>223</v>
+        <v>342</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6619,7 +6976,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>224</v>
+        <v>343</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6666,7 +7023,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>225</v>
+        <v>344</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6713,7 +7070,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>226</v>
+        <v>345</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -6760,7 +7117,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>227</v>
+        <v>346</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -6807,7 +7164,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>228</v>
+        <v>347</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -6854,7 +7211,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>229</v>
+        <v>348</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>

--- a/KatalonData/VLinkSmokeDataACH.xlsx
+++ b/KatalonData/VLinkSmokeDataACH.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr documentId="13_ncr:1_{34FE0EF7-1C2D-4A17-B239-2F9FDFAAC469}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A00E9F3-8686-4CBE-AAA4-791CEA9105D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView activeTab="10" firstSheet="3" windowHeight="17640" windowWidth="29040" xWindow="-28920" xr2:uid="{388D034C-6DAD-459D-91DB-B99E6D26AB62}" yWindow="-120"/>
+    <workbookView xWindow="4410" yWindow="1665" windowWidth="18810" windowHeight="14565" firstSheet="3" activeTab="6" xr2:uid="{388D034C-6DAD-459D-91DB-B99E6D26AB62}"/>
   </bookViews>
   <sheets>
-    <sheet name="Debit" r:id="rId1" sheetId="1"/>
-    <sheet name="Debit-ZeroDollar" r:id="rId2" sheetId="2"/>
-    <sheet name="Debit-Void" r:id="rId3" sheetId="3"/>
-    <sheet name="Debit-Credit" r:id="rId4" sheetId="4"/>
-    <sheet name="Debit-Credit-Void" r:id="rId5" sheetId="5"/>
-    <sheet name="Debit-MRF" r:id="rId6" sheetId="6"/>
-    <sheet name="Void-MRF" r:id="rId7" sheetId="7"/>
-    <sheet name="Credit-MRF" r:id="rId8" sheetId="8"/>
-    <sheet name="Debit-RemID-Pipe" r:id="rId9" sheetId="9"/>
-    <sheet name="DebitVoid-RemID-Pipe" r:id="rId10" sheetId="10"/>
-    <sheet name="DebitCredit-RemID-Pipe" r:id="rId11" sheetId="11"/>
+    <sheet name="Debit" sheetId="1" r:id="rId1"/>
+    <sheet name="Debit-ZeroDollar" sheetId="2" r:id="rId2"/>
+    <sheet name="Debit-Void" sheetId="3" r:id="rId3"/>
+    <sheet name="Debit-Credit" sheetId="4" r:id="rId4"/>
+    <sheet name="Debit-Credit-Void" sheetId="5" r:id="rId5"/>
+    <sheet name="Debit-MRF" sheetId="6" r:id="rId6"/>
+    <sheet name="Void-MRF" sheetId="7" r:id="rId7"/>
+    <sheet name="Credit-MRF" sheetId="8" r:id="rId8"/>
+    <sheet name="Debit-RemID-Pipe" sheetId="9" r:id="rId9"/>
+    <sheet name="DebitVoid-RemID-Pipe" sheetId="10" r:id="rId10"/>
+    <sheet name="DebitCredit-RemID-Pipe" sheetId="11" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2291" uniqueCount="356">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="181">
   <si>
     <t>Result</t>
   </si>
@@ -291,153 +291,6 @@
     <t>Fail</t>
   </si>
   <si>
-    <t>Wed Feb 15 22:57:50 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 22:58:13 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 22:58:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 22:59:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 22:59:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 22:59:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:00:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:00:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:01:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:01:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:01:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:02:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:02:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:03:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:03:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:04:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:04:40 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:05:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:05:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:06:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:06:57 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:18:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:19:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:19:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:19:55 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:20:20 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:20:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:21:09 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:23:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:23:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:24:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:24:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:24:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:25:13 EST 2023</t>
-  </si>
-  <si>
-    <t>Wed Feb 15 23:25:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:33:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:34:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:34:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:34:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:34:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:35:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:35:23 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:35:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:35:54 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:36:08 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:36:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:36:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:36:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:37:08 EST 2023</t>
-  </si>
-  <si>
     <t>Thu Feb 16 19:42:37 EST 2023</t>
   </si>
   <si>
@@ -495,459 +348,12 @@
     <t>Thu Feb 16 19:49:05 EST 2023</t>
   </si>
   <si>
-    <t>Thu Feb 16 19:49:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:49:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:49:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:50:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:50:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:50:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:50:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:50:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:51:05 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:51:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:51:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:51:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:51:57 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:52:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:52:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:52:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:52:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:53:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:53:19 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:53:33 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:53:47 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:54:00 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:55:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:56:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:56:29 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:56:44 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:56:59 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:57:13 EST 2023</t>
-  </si>
-  <si>
-    <t>Thu Feb 16 19:57:28 EST 2023</t>
-  </si>
-  <si>
     <t>Qq2BV1qtr</t>
   </si>
   <si>
     <t>tUmWBiLUx</t>
   </si>
   <si>
-    <t/>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:36:43 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:36:58 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:37:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:37:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:37:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:37:55 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:38:10 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:38:24 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:38:39 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:38:53 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:39:07 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:39:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:39:35 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:39:50 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:40:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:40:28 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:40:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:41:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:41:40 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:42:04 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:42:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:42:51 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:43:16 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:43:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:44:06 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:44:31 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:44:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:45:21 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:45:46 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:46:20 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:46:55 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:47:30 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:48:03 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:48:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:49:12 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:49:48 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:50:13 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:50:37 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:51:02 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:51:27 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:51:52 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:52:17 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:52:42 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:52:57 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:53:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:53:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:53:41 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:53:56 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:54:11 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:54:26 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:54:50 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:55:14 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:55:38 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:56:01 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:56:25 EST 2023</t>
-  </si>
-  <si>
-    <t>Tue Feb 28 18:56:49 EST 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:33:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:34:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:34:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:34:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:34:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:35:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:35:15 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:35:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:35:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:35:58 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:36:12 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:36:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:36:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:36:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:37:10 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:37:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:37:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:38:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:38:44 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:39:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:39:32 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:39:57 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:40:22 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:40:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:41:11 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:41:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:42:01 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:42:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:42:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:43:26 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:44:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:44:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:45:08 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:45:42 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:46:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:46:51 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:47:16 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:47:41 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:48:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:48:30 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:48:55 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:49:21 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:49:47 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:50:02 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 21:50:18 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 22:00:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 22:10:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 22:20:04 EDT 2023</t>
-  </si>
-  <si>
-    <t>Mon Apr 24 22:29:59 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:47:09 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:47:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:47:38 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:47:52 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:48:06 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:48:20 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:48:34 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:48:49 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:49:13 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:49:36 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:50:00 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:50:23 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:50:46 EDT 2023</t>
-  </si>
-  <si>
-    <t>Tue Apr 25 13:51:10 EDT 2023</t>
-  </si>
-  <si>
     <t>Tue Apr 25 14:22:13 EDT 2023</t>
   </si>
   <si>
@@ -1114,13 +520,81 @@
   </si>
   <si>
     <t>Tue Apr 25 14:42:13 EDT 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:48:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:48:34 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:48:49 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:49:03 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:49:17 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:49:32 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:49:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:49:59 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:50:14 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:50:27 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:50:41 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:50:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:53:25 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:53:40 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:53:54 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:54:07 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:54:20 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:54:33 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:54:45 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:54:57 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:55:10 EST 2023</t>
+  </si>
+  <si>
+    <t>Tue Dec 12 15:55:22 EST 2023</t>
+  </si>
+  <si>
+    <t>check_first_name, check_last_name, check_address, check_city</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -1169,23 +643,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
-    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle builtinId="0" name="Normal" xfId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
+  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -1202,10 +676,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr lastClr="000000" val="windowText"/>
+        <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr lastClr="FFFFFF" val="window"/>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -1240,7 +714,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
+        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -1292,7 +766,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -1403,21 +877,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
+        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
+        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -1434,7 +908,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
+            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -1486,15 +960,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F1F3D5-37B4-4D18-A029-08788223EDF8}">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F1F3D5-37B4-4D18-A029-08788223EDF8}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -1502,20 +976,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1573,7 +1047,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>102</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1591,10 +1065,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>20</v>
@@ -1620,7 +1094,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>103</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1638,10 +1112,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
@@ -1667,7 +1141,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>104</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1685,10 +1159,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -1714,7 +1188,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>105</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1732,10 +1206,10 @@
         <v>1773</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -1761,7 +1235,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>106</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1779,10 +1253,10 @@
         <v>1773</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -1808,7 +1282,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>107</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1826,10 +1300,10 @@
         <v>1773</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -1855,7 +1329,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>108</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1873,10 +1347,10 @@
         <v>1773</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>29</v>
@@ -1898,8 +1372,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1907,8 +1381,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E6572-E2E1-46C7-90FD-43A4857206DE}">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E6572-E2E1-46C7-90FD-43A4857206DE}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -1916,20 +1390,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1987,7 +1461,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>151</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2005,10 +1479,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>20</v>
@@ -2034,7 +1508,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>350</v>
+        <v>152</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2052,10 +1526,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
@@ -2081,7 +1555,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>351</v>
+        <v>153</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2099,10 +1573,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -2128,7 +1602,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>352</v>
+        <v>154</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2146,10 +1620,10 @@
         <v>1773</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -2175,7 +1649,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>353</v>
+        <v>155</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2193,10 +1667,10 @@
         <v>1773</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -2222,7 +1696,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>354</v>
+        <v>156</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2240,10 +1714,10 @@
         <v>1773</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -2269,7 +1743,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>355</v>
+        <v>157</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2287,10 +1761,10 @@
         <v>1773</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>29</v>
@@ -2312,423 +1786,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DEB1C2-0C49-4D7C-B8E8-62617B390DA3}">
-  <dimension ref="A1:R8"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I8" sqref="I8:J8"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
-  </cols>
-  <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="H1" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="I1" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="J1" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="K1" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="L1" s="1" t="s">
-        <v>14</v>
-      </c>
-      <c r="M1" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="N1" s="1" t="s">
-        <v>13</v>
-      </c>
-      <c r="O1" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="P1" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Q1" s="1" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B2" t="s">
-        <v>335</v>
-      </c>
-      <c r="D2" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E2" s="2">
-        <v>234</v>
-      </c>
-      <c r="F2" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G2" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H2" s="2">
-        <v>1773</v>
-      </c>
-      <c r="I2" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J2" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K2" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L2" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N2" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O2" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P2" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q2" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B3" t="s">
-        <v>336</v>
-      </c>
-      <c r="D3" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E3" s="2">
-        <v>234</v>
-      </c>
-      <c r="F3" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G3" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H3" s="2">
-        <v>1773</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K3" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L3" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N3" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O3" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P3" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q3" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>32</v>
-      </c>
-      <c r="B4" t="s">
-        <v>337</v>
-      </c>
-      <c r="D4" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E4" s="2">
-        <v>234</v>
-      </c>
-      <c r="F4" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G4" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H4" s="2">
-        <v>1773</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J4" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K4" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L4" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N4" s="3" t="s">
-        <v>22</v>
-      </c>
-      <c r="O4" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P4" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>32</v>
-      </c>
-      <c r="B5" t="s">
-        <v>338</v>
-      </c>
-      <c r="D5" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E5" s="2">
-        <v>234</v>
-      </c>
-      <c r="F5" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G5" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H5" s="2">
-        <v>1773</v>
-      </c>
-      <c r="I5" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J5" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K5" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L5" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N5" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O5" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q5" s="3" t="s">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>32</v>
-      </c>
-      <c r="B6" t="s">
-        <v>339</v>
-      </c>
-      <c r="D6" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E6" s="2">
-        <v>234</v>
-      </c>
-      <c r="F6" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H6" s="2">
-        <v>1773</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L6" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N6" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O6" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P6" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q6" s="3" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>32</v>
-      </c>
-      <c r="B7" t="s">
-        <v>340</v>
-      </c>
-      <c r="D7" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E7" s="2">
-        <v>234</v>
-      </c>
-      <c r="F7" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G7" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H7" s="2">
-        <v>1773</v>
-      </c>
-      <c r="I7" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J7" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K7" s="3" t="s">
-        <v>20</v>
-      </c>
-      <c r="L7" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="N7" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="O7" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P7" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q7" s="3" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
-        <v>341</v>
-      </c>
-      <c r="D8" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8" s="2">
-        <v>234</v>
-      </c>
-      <c r="F8" s="2" t="s">
-        <v>18</v>
-      </c>
-      <c r="G8" s="2" t="s">
-        <v>19</v>
-      </c>
-      <c r="H8" s="2">
-        <v>1773</v>
-      </c>
-      <c r="I8" s="2" t="s">
-        <v>178</v>
-      </c>
-      <c r="J8" s="2" t="s">
-        <v>179</v>
-      </c>
-      <c r="K8" s="3" t="s">
-        <v>29</v>
-      </c>
-      <c r="L8" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="M8" s="3" t="s">
-        <v>30</v>
-      </c>
-      <c r="O8" s="3" t="s">
-        <v>23</v>
-      </c>
-      <c r="P8" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q8" s="3" t="s">
-        <v>31</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F77AD1-6B6A-4837-8643-295057715D44}">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DEB1C2-0C49-4D7C-B8E8-62617B390DA3}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -2736,20 +1800,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2807,7 +1871,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>137</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2825,10 +1889,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>20</v>
@@ -2843,7 +1907,7 @@
         <v>23</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>25</v>
@@ -2854,7 +1918,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>138</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2872,10 +1936,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
@@ -2890,7 +1954,7 @@
         <v>23</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>26</v>
@@ -2901,7 +1965,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>139</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2919,10 +1983,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -2937,7 +2001,7 @@
         <v>23</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>27</v>
@@ -2948,7 +2012,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>140</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2966,10 +2030,10 @@
         <v>1773</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -2984,7 +2048,7 @@
         <v>23</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>25</v>
@@ -2995,7 +2059,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>141</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3013,10 +2077,10 @@
         <v>1773</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -3031,7 +2095,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>26</v>
@@ -3042,7 +2106,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>142</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3060,10 +2124,10 @@
         <v>1773</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -3078,7 +2142,7 @@
         <v>23</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>27</v>
@@ -3089,7 +2153,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>143</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3107,10 +2171,10 @@
         <v>1773</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>29</v>
@@ -3125,20 +2189,20 @@
         <v>23</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>33</v>
+        <v>24</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9B566-2104-4D91-9419-2327ED3CE217}">
-  <dimension ref="A1:R8"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F77AD1-6B6A-4837-8643-295057715D44}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -3146,20 +2210,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3217,7 +2281,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>109</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3235,10 +2299,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>20</v>
@@ -3253,7 +2317,7 @@
         <v>23</v>
       </c>
       <c r="P2" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q2" s="3" t="s">
         <v>25</v>
@@ -3264,7 +2328,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>110</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3282,10 +2346,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
@@ -3300,7 +2364,7 @@
         <v>23</v>
       </c>
       <c r="P3" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q3" s="3" t="s">
         <v>26</v>
@@ -3311,7 +2375,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>111</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3329,10 +2393,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -3347,7 +2411,7 @@
         <v>23</v>
       </c>
       <c r="P4" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q4" s="3" t="s">
         <v>27</v>
@@ -3358,7 +2422,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>112</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3376,10 +2440,10 @@
         <v>1773</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -3394,7 +2458,7 @@
         <v>23</v>
       </c>
       <c r="P5" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q5" s="3" t="s">
         <v>25</v>
@@ -3405,7 +2469,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>113</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3423,10 +2487,10 @@
         <v>1773</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -3441,7 +2505,7 @@
         <v>23</v>
       </c>
       <c r="P6" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q6" s="3" t="s">
         <v>26</v>
@@ -3452,7 +2516,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>114</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3470,10 +2534,10 @@
         <v>1773</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -3488,7 +2552,7 @@
         <v>23</v>
       </c>
       <c r="P7" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q7" s="3" t="s">
         <v>27</v>
@@ -3499,7 +2563,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>115</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3517,10 +2581,10 @@
         <v>1773</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>29</v>
@@ -3535,20 +2599,20 @@
         <v>23</v>
       </c>
       <c r="P8" s="3" t="s">
-        <v>24</v>
+        <v>33</v>
       </c>
       <c r="Q8" s="3" t="s">
         <v>31</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157F26B-1901-489C-8F43-B30441C51CC9}">
-  <dimension ref="A1:R8"/>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9B566-2104-4D91-9419-2327ED3CE217}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -3556,20 +2620,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3627,7 +2691,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>116</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3645,10 +2709,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>20</v>
@@ -3674,7 +2738,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>117</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3692,10 +2756,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
@@ -3721,7 +2785,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>118</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3739,10 +2803,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -3768,7 +2832,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>119</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3786,10 +2850,10 @@
         <v>1773</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -3815,7 +2879,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>120</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3833,10 +2897,10 @@
         <v>1773</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -3862,7 +2926,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>121</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3880,10 +2944,10 @@
         <v>1773</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -3909,7 +2973,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>122</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3927,10 +2991,10 @@
         <v>1773</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>29</v>
@@ -3952,13 +3016,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09B7C8-12B8-4591-9AA2-4B82A69A8ABA}">
-  <dimension ref="A1:R8"/>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157F26B-1901-489C-8F43-B30441C51CC9}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -3966,20 +3030,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4037,7 +3101,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>123</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4055,10 +3119,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>20</v>
@@ -4084,7 +3148,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>124</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4102,10 +3166,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
@@ -4131,7 +3195,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>125</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4149,10 +3213,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -4178,7 +3242,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>126</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4196,10 +3260,10 @@
         <v>1773</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -4225,7 +3289,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>127</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4243,10 +3307,10 @@
         <v>1773</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -4272,7 +3336,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>128</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4290,10 +3354,10 @@
         <v>1773</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -4319,7 +3383,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>129</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4337,10 +3401,10 @@
         <v>1773</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>29</v>
@@ -4362,13 +3426,423 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09B7C8-12B8-4591-9AA2-4B82A69A8ABA}">
+  <dimension ref="A1:Q8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8:J8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K1" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="L1" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="M1" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N1" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="O1" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="P1" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q1" s="1" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>32</v>
+      </c>
+      <c r="B2" t="s">
+        <v>130</v>
+      </c>
+      <c r="D2" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E2" s="2">
+        <v>234</v>
+      </c>
+      <c r="F2" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G2" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H2" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I2" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J2" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K2" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L2" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O2" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P2" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q2" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B3" t="s">
+        <v>131</v>
+      </c>
+      <c r="D3" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E3" s="2">
+        <v>234</v>
+      </c>
+      <c r="F3" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G3" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H3" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I3" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J3" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K3" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L3" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N3" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O3" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P3" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q3" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>32</v>
+      </c>
+      <c r="B4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D4" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E4" s="2">
+        <v>234</v>
+      </c>
+      <c r="F4" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G4" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H4" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I4" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J4" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K4" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N4" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="O4" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P4" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>32</v>
+      </c>
+      <c r="B5" t="s">
+        <v>133</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E5" s="2">
+        <v>234</v>
+      </c>
+      <c r="F5" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G5" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H5" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K5" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L5" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N5" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O5" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P5" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q5" s="3" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>32</v>
+      </c>
+      <c r="B6" t="s">
+        <v>134</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E6" s="2">
+        <v>234</v>
+      </c>
+      <c r="F6" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G6" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H6" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I6" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J6" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K6" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N6" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P6" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q6" s="3" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>135</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E7" s="2">
+        <v>234</v>
+      </c>
+      <c r="F7" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G7" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H7" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I7" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J7" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K7" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="L7" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="N7" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="O7" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q7" s="3" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>32</v>
+      </c>
+      <c r="B8" t="s">
+        <v>136</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8" s="2">
+        <v>234</v>
+      </c>
+      <c r="F8" s="2" t="s">
+        <v>18</v>
+      </c>
+      <c r="G8" s="2" t="s">
+        <v>19</v>
+      </c>
+      <c r="H8" s="2">
+        <v>1773</v>
+      </c>
+      <c r="I8" s="2" t="s">
+        <v>100</v>
+      </c>
+      <c r="J8" s="2" t="s">
+        <v>101</v>
+      </c>
+      <c r="K8" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="L8" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="P8" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q8" s="3" t="s">
+        <v>31</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA08836-3194-499F-99DE-E912B383D439}">
-  <dimension ref="A1:Y20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA08836-3194-499F-99DE-E912B383D439}">
+  <dimension ref="A1:X20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -4376,20 +3850,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="36.140625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" style="3" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="10" max="14" style="3" width="12.5703125" collapsed="true"/>
-    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="16" max="16384" style="3" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="3" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="14" width="12.5703125" style="3" collapsed="1"/>
+    <col min="15" max="15" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="12.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:24" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:24" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -4468,7 +3942,7 @@
         <v>80</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>81</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4533,7 +4007,7 @@
         <v>80</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>82</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4598,7 +4072,7 @@
         <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>83</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4664,7 +4138,7 @@
         <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>84</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4730,7 +4204,7 @@
         <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>85</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4796,7 +4270,7 @@
         <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>86</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4862,7 +4336,7 @@
         <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>87</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4927,7 +4401,7 @@
         <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>137</v>
+        <v>88</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -4992,7 +4466,7 @@
         <v>80</v>
       </c>
       <c r="B10" t="s">
-        <v>138</v>
+        <v>89</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -5057,7 +4531,7 @@
         <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>139</v>
+        <v>90</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -5122,7 +4596,7 @@
         <v>80</v>
       </c>
       <c r="B12" t="s">
-        <v>140</v>
+        <v>91</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -5187,7 +4661,7 @@
         <v>80</v>
       </c>
       <c r="B13" t="s">
-        <v>141</v>
+        <v>92</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -5252,7 +4726,7 @@
         <v>80</v>
       </c>
       <c r="B14" t="s">
-        <v>142</v>
+        <v>93</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
@@ -5317,7 +4791,7 @@
         <v>80</v>
       </c>
       <c r="B15" t="s">
-        <v>143</v>
+        <v>94</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -5382,7 +4856,7 @@
         <v>80</v>
       </c>
       <c r="B16" t="s">
-        <v>144</v>
+        <v>95</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -5447,7 +4921,7 @@
         <v>80</v>
       </c>
       <c r="B17" t="s">
-        <v>145</v>
+        <v>96</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -5512,7 +4986,7 @@
         <v>80</v>
       </c>
       <c r="B18" t="s">
-        <v>146</v>
+        <v>97</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -5577,7 +5051,7 @@
         <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>147</v>
+        <v>98</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
@@ -5642,7 +5116,7 @@
         <v>80</v>
       </c>
       <c r="B20" t="s">
-        <v>148</v>
+        <v>99</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -5704,34 +5178,34 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06482146-3F5D-47DF-9B90-B5700E0EE57E}">
-  <dimension ref="A1:P11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06482146-3F5D-47DF-9B90-B5700E0EE57E}">
+  <dimension ref="A1:O11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:XFD1048576"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="36.140625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" style="3" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="10" max="14" style="3" width="12.5703125" collapsed="true"/>
-    <col min="15" max="15" customWidth="true" style="3" width="19.7109375" collapsed="true"/>
-    <col min="16" max="16384" style="3" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="3" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="14" width="12.5703125" style="3" collapsed="1"/>
+    <col min="15" max="15" width="19.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="16" max="16384" width="12.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:15" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:15" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5780,10 +5254,10 @@
     </row>
     <row r="2" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>149</v>
+        <v>170</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -5821,10 +5295,10 @@
     </row>
     <row r="3" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>150</v>
+        <v>171</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -5862,10 +5336,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>151</v>
+        <v>172</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -5904,10 +5378,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>152</v>
+        <v>173</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -5946,10 +5420,10 @@
     </row>
     <row r="6" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>153</v>
+        <v>174</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -5991,13 +5465,13 @@
         <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>154</v>
+        <v>175</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>76</v>
+        <v>180</v>
       </c>
       <c r="F7" s="3" t="s">
         <v>47</v>
@@ -6030,10 +5504,10 @@
     </row>
     <row r="8" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>155</v>
+        <v>176</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6071,10 +5545,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>156</v>
+        <v>177</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -6112,10 +5586,10 @@
     </row>
     <row r="10" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>157</v>
+        <v>178</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -6153,10 +5627,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>158</v>
+        <v>179</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -6193,13 +5667,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F6E92C-F0B2-419E-A8FB-B67C2DE09DC4}">
-  <dimension ref="A1:R13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F6E92C-F0B2-419E-A8FB-B67C2DE09DC4}">
+  <dimension ref="A1:Q13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D13"/>
@@ -6207,21 +5681,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" customWidth="true" style="3" width="36.140625" collapsed="true"/>
-    <col min="6" max="7" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="8" max="8" style="3" width="12.5703125" collapsed="true"/>
-    <col min="9" max="9" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="10" max="15" style="3" width="12.5703125" collapsed="true"/>
-    <col min="16" max="16" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="17" max="17" customWidth="true" style="3" width="15.0" collapsed="true"/>
-    <col min="18" max="16384" style="3" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="36.140625" style="3" customWidth="1" collapsed="1"/>
+    <col min="6" max="7" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="8" max="8" width="12.5703125" style="3" collapsed="1"/>
+    <col min="9" max="9" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="10" max="15" width="12.5703125" style="3" collapsed="1"/>
+    <col min="16" max="16" width="15.42578125" style="3" customWidth="1" collapsed="1"/>
+    <col min="17" max="17" width="15" style="3" customWidth="1" collapsed="1"/>
+    <col min="18" max="16384" width="12.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6276,10 +5750,10 @@
     </row>
     <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6323,10 +5797,10 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6370,10 +5844,10 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6418,10 +5892,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -6466,10 +5940,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -6514,10 +5988,10 @@
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -6562,10 +6036,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6609,10 +6083,10 @@
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -6656,10 +6130,10 @@
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -6703,10 +6177,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -6750,10 +6224,10 @@
     </row>
     <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -6797,10 +6271,10 @@
     </row>
     <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -6844,13 +6318,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475D3EEC-13EC-491F-9A96-22DFFF4616CF}">
-  <dimension ref="A1:R8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475D3EEC-13EC-491F-9A96-22DFFF4616CF}">
+  <dimension ref="A1:Q8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -6858,20 +6332,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
-    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
-    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
-    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
-    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
-    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
-    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
-    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
-    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
-    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
+    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
+    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
+    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
+    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
+    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
+    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
+    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
+    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
   </cols>
   <sheetData>
-    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6929,7 +6403,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>342</v>
+        <v>144</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6947,10 +6421,10 @@
         <v>1773</v>
       </c>
       <c r="I2" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J2" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K2" s="3" t="s">
         <v>20</v>
@@ -6976,7 +6450,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>343</v>
+        <v>145</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6994,10 +6468,10 @@
         <v>1773</v>
       </c>
       <c r="I3" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J3" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K3" s="3" t="s">
         <v>20</v>
@@ -7023,7 +6497,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>344</v>
+        <v>146</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -7041,10 +6515,10 @@
         <v>1773</v>
       </c>
       <c r="I4" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J4" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K4" s="3" t="s">
         <v>20</v>
@@ -7070,7 +6544,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>345</v>
+        <v>147</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -7088,10 +6562,10 @@
         <v>1773</v>
       </c>
       <c r="I5" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J5" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K5" s="3" t="s">
         <v>20</v>
@@ -7117,7 +6591,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>346</v>
+        <v>148</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -7135,10 +6609,10 @@
         <v>1773</v>
       </c>
       <c r="I6" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J6" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K6" s="3" t="s">
         <v>20</v>
@@ -7164,7 +6638,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>347</v>
+        <v>149</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -7182,10 +6656,10 @@
         <v>1773</v>
       </c>
       <c r="I7" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J7" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K7" s="3" t="s">
         <v>20</v>
@@ -7211,7 +6685,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>348</v>
+        <v>150</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -7229,10 +6703,10 @@
         <v>1773</v>
       </c>
       <c r="I8" s="2" t="s">
-        <v>178</v>
+        <v>100</v>
       </c>
       <c r="J8" s="2" t="s">
-        <v>179</v>
+        <v>101</v>
       </c>
       <c r="K8" s="3" t="s">
         <v>29</v>
@@ -7254,6 +6728,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/KatalonData/VLinkSmokeDataACH.xlsx
+++ b/KatalonData/VLinkSmokeDataACH.xlsx
@@ -1,33 +1,33 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26827"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Cloned-Project-Katalon\VPS-Katalon\KatalonData\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0A00E9F3-8686-4CBE-AAA4-791CEA9105D9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr documentId="13_ncr:1_{0A00E9F3-8686-4CBE-AAA4-791CEA9105D9}" revIDLastSave="0" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47"/>
   <bookViews>
-    <workbookView xWindow="4410" yWindow="1665" windowWidth="18810" windowHeight="14565" firstSheet="3" activeTab="6" xr2:uid="{388D034C-6DAD-459D-91DB-B99E6D26AB62}"/>
+    <workbookView activeTab="6" firstSheet="3" windowHeight="14565" windowWidth="18810" xWindow="4410" xr2:uid="{388D034C-6DAD-459D-91DB-B99E6D26AB62}" yWindow="1665"/>
   </bookViews>
   <sheets>
-    <sheet name="Debit" sheetId="1" r:id="rId1"/>
-    <sheet name="Debit-ZeroDollar" sheetId="2" r:id="rId2"/>
-    <sheet name="Debit-Void" sheetId="3" r:id="rId3"/>
-    <sheet name="Debit-Credit" sheetId="4" r:id="rId4"/>
-    <sheet name="Debit-Credit-Void" sheetId="5" r:id="rId5"/>
-    <sheet name="Debit-MRF" sheetId="6" r:id="rId6"/>
-    <sheet name="Void-MRF" sheetId="7" r:id="rId7"/>
-    <sheet name="Credit-MRF" sheetId="8" r:id="rId8"/>
-    <sheet name="Debit-RemID-Pipe" sheetId="9" r:id="rId9"/>
-    <sheet name="DebitVoid-RemID-Pipe" sheetId="10" r:id="rId10"/>
-    <sheet name="DebitCredit-RemID-Pipe" sheetId="11" r:id="rId11"/>
+    <sheet name="Debit" r:id="rId1" sheetId="1"/>
+    <sheet name="Debit-ZeroDollar" r:id="rId2" sheetId="2"/>
+    <sheet name="Debit-Void" r:id="rId3" sheetId="3"/>
+    <sheet name="Debit-Credit" r:id="rId4" sheetId="4"/>
+    <sheet name="Debit-Credit-Void" r:id="rId5" sheetId="5"/>
+    <sheet name="Debit-MRF" r:id="rId6" sheetId="6"/>
+    <sheet name="Void-MRF" r:id="rId7" sheetId="7"/>
+    <sheet name="Credit-MRF" r:id="rId8" sheetId="8"/>
+    <sheet name="Debit-RemID-Pipe" r:id="rId9" sheetId="9"/>
+    <sheet name="DebitVoid-RemID-Pipe" r:id="rId10" sheetId="10"/>
+    <sheet name="DebitCredit-RemID-Pipe" r:id="rId11" sheetId="11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1591" uniqueCount="181">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="279">
   <si>
     <t>Result</t>
   </si>
@@ -589,12 +589,307 @@
   </si>
   <si>
     <t>check_first_name, check_last_name, check_address, check_city</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Thu May 16 00:35:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:36:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:36:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:36:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:36:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:37:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:37:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:37:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:38:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:38:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:38:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:38:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:39:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:39:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:39:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:40:01 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:40:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:40:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:41:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:41:45 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:42:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:42:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:43:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:43:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:43:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:44:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:44:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:45:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:45:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:46:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:47:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:47:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:48:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:48:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:49:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:50:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:50:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:50:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:51:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:51:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:51:57 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:52:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:52:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:53:02 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:53:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:53:46 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:54:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:54:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:54:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:55:14 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:55:36 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:55:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:56:20 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:56:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:57:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:57:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:57:29 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:57:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:57:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:58:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:58:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:58:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:58:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:58:56 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:59:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:59:24 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:59:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 00:59:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:00:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:00:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:00:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:00:52 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:01:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:01:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:01:35 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:01:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:02:05 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:02:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:03:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:03:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:03:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:04:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:04:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:05:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:05:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:05:47 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:06:03 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:06:19 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:06:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:06:51 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:07:07 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:07:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:08:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:08:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:08:53 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:09:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu May 16 01:09:44 EDT 2024</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -643,23 +938,23 @@
     </border>
   </borders>
   <cellStyleXfs count="1">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
   <cellXfs count="4">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
+    <xf applyAlignment="1" applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf applyAlignment="1" applyBorder="1" borderId="1" fillId="0" fontId="0" numFmtId="0" xfId="0">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1"/>
+    <xf applyBorder="1" applyNumberFormat="1" borderId="1" fillId="0" fontId="0" numFmtId="49" xfId="0"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle builtinId="0" name="Normal" xfId="0"/>
   </cellStyles>
   <dxfs count="0"/>
-  <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <tableStyles count="0" defaultPivotStyle="PivotStyleLight16" defaultTableStyle="TableStyleMedium2"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -676,10 +971,10 @@
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
-        <a:sysClr val="windowText" lastClr="000000"/>
+        <a:sysClr lastClr="000000" val="windowText"/>
       </a:dk1>
       <a:lt1>
-        <a:sysClr val="window" lastClr="FFFFFF"/>
+        <a:sysClr lastClr="FFFFFF" val="window"/>
       </a:lt1>
       <a:dk2>
         <a:srgbClr val="44546A"/>
@@ -714,7 +1009,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin panose="020F0302020204030204" typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック Light"/>
@@ -766,7 +1061,7 @@
         <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin panose="020F0502020204030204" typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="游ゴシック"/>
@@ -877,21 +1172,21 @@
         </a:gradFill>
       </a:fillStyleLst>
       <a:lnStyleLst>
-        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="6350">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="12700" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="12700">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
           <a:miter lim="800000"/>
         </a:ln>
-        <a:ln w="19050" cap="flat" cmpd="sng" algn="ctr">
+        <a:ln algn="ctr" cap="flat" cmpd="sng" w="19050">
           <a:solidFill>
             <a:schemeClr val="phClr"/>
           </a:solidFill>
@@ -908,7 +1203,7 @@
         </a:effectStyle>
         <a:effectStyle>
           <a:effectLst>
-            <a:outerShdw blurRad="57150" dist="19050" dir="5400000" algn="ctr" rotWithShape="0">
+            <a:outerShdw algn="ctr" blurRad="57150" dir="5400000" dist="19050" rotWithShape="0">
               <a:srgbClr val="000000">
                 <a:alpha val="63000"/>
               </a:srgbClr>
@@ -960,15 +1255,15 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" name="Office Theme" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F1F3D5-37B4-4D18-A029-08788223EDF8}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C6F1F3D5-37B4-4D18-A029-08788223EDF8}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I11" sqref="I11"/>
@@ -976,20 +1271,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1047,7 +1342,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>102</v>
+        <v>182</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1094,7 +1389,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>103</v>
+        <v>183</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1141,7 +1436,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>104</v>
+        <v>184</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1188,7 +1483,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>105</v>
+        <v>185</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1235,7 +1530,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>106</v>
+        <v>186</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1282,7 +1577,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>107</v>
+        <v>187</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1329,7 +1624,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>108</v>
+        <v>188</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1372,8 +1667,8 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+  <pageSetup horizontalDpi="4294967293" orientation="portrait" r:id="rId1" verticalDpi="0"/>
   <headerFooter>
     <oddFooter xml:space="preserve">&amp;C_x000D_&amp;1#&amp;"Calibri"&amp;10&amp;K000000 Public </oddFooter>
   </headerFooter>
@@ -1381,8 +1676,8 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E6572-E2E1-46C7-90FD-43A4857206DE}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{483E6572-E2E1-46C7-90FD-43A4857206DE}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -1390,20 +1685,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1461,7 +1756,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>151</v>
+        <v>272</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1508,7 +1803,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>152</v>
+        <v>273</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1555,7 +1850,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>153</v>
+        <v>274</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1602,7 +1897,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>154</v>
+        <v>275</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1649,7 +1944,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>155</v>
+        <v>276</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1696,7 +1991,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>156</v>
+        <v>277</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1743,7 +2038,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>157</v>
+        <v>278</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1786,13 +2081,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DEB1C2-0C49-4D7C-B8E8-62617B390DA3}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06DEB1C2-0C49-4D7C-B8E8-62617B390DA3}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -1800,20 +2095,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1871,7 +2166,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>137</v>
+        <v>258</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1918,7 +2213,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>138</v>
+        <v>259</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1965,7 +2260,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>139</v>
+        <v>260</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2012,7 +2307,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>140</v>
+        <v>261</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2059,7 +2354,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>141</v>
+        <v>262</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2106,7 +2401,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>142</v>
+        <v>263</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2153,7 +2448,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>143</v>
+        <v>264</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2196,13 +2491,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F77AD1-6B6A-4837-8643-295057715D44}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9F77AD1-6B6A-4837-8643-295057715D44}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -2210,20 +2505,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2281,7 +2576,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>109</v>
+        <v>189</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2328,7 +2623,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>110</v>
+        <v>190</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2375,7 +2670,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>111</v>
+        <v>191</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2422,7 +2717,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>112</v>
+        <v>192</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2469,7 +2764,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>113</v>
+        <v>193</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2516,7 +2811,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>114</v>
+        <v>194</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2563,7 +2858,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>115</v>
+        <v>195</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2606,13 +2901,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9B566-2104-4D91-9419-2327ED3CE217}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18E9B566-2104-4D91-9419-2327ED3CE217}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -2620,20 +2915,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2691,7 +2986,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>116</v>
+        <v>196</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2738,7 +3033,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>117</v>
+        <v>197</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2785,7 +3080,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>118</v>
+        <v>198</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2832,7 +3127,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>119</v>
+        <v>199</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2879,7 +3174,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>120</v>
+        <v>200</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2926,7 +3221,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>121</v>
+        <v>201</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2973,7 +3268,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>122</v>
+        <v>202</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3016,13 +3311,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157F26B-1901-489C-8F43-B30441C51CC9}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4157F26B-1901-489C-8F43-B30441C51CC9}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -3030,20 +3325,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3101,7 +3396,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>123</v>
+        <v>203</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3148,7 +3443,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>124</v>
+        <v>204</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3195,7 +3490,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>125</v>
+        <v>205</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3242,7 +3537,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>126</v>
+        <v>206</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3289,7 +3584,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>127</v>
+        <v>207</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3336,7 +3631,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>128</v>
+        <v>208</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3383,7 +3678,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>129</v>
+        <v>209</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3426,13 +3721,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09B7C8-12B8-4591-9AA2-4B82A69A8ABA}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF09B7C8-12B8-4591-9AA2-4B82A69A8ABA}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -3440,20 +3735,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3511,7 +3806,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>130</v>
+        <v>210</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3558,7 +3853,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>131</v>
+        <v>211</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3605,7 +3900,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>132</v>
+        <v>212</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3652,7 +3947,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>133</v>
+        <v>213</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3699,7 +3994,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>134</v>
+        <v>214</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3746,7 +4041,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>135</v>
+        <v>215</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3793,7 +4088,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>136</v>
+        <v>216</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3836,13 +4131,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA08836-3194-499F-99DE-E912B383D439}">
-  <dimension ref="A1:X20"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3CA08836-3194-499F-99DE-E912B383D439}">
+  <dimension ref="A1:Y20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="E19" sqref="E19"/>
@@ -3850,20 +4145,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="3" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="14" width="12.5703125" style="3" collapsed="1"/>
-    <col min="15" max="15" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="36.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" style="3" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="10" max="14" style="3" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:24" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -3939,10 +4234,10 @@
     </row>
     <row r="2" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>81</v>
+        <v>217</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4004,10 +4299,10 @@
     </row>
     <row r="3" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>82</v>
+        <v>218</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4069,10 +4364,10 @@
     </row>
     <row r="4" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>83</v>
+        <v>219</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4135,10 +4430,10 @@
     </row>
     <row r="5" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>84</v>
+        <v>220</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4201,10 +4496,10 @@
     </row>
     <row r="6" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>85</v>
+        <v>221</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4267,10 +4562,10 @@
     </row>
     <row r="7" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>86</v>
+        <v>222</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4333,10 +4628,10 @@
     </row>
     <row r="8" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>87</v>
+        <v>223</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4398,10 +4693,10 @@
     </row>
     <row r="9" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>88</v>
+        <v>224</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -4463,10 +4758,10 @@
     </row>
     <row r="10" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>89</v>
+        <v>225</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -4528,10 +4823,10 @@
     </row>
     <row r="11" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>90</v>
+        <v>226</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -4593,10 +4888,10 @@
     </row>
     <row r="12" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>91</v>
+        <v>227</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -4658,10 +4953,10 @@
     </row>
     <row r="13" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>92</v>
+        <v>228</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -4723,10 +5018,10 @@
     </row>
     <row r="14" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>93</v>
+        <v>229</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
@@ -4788,10 +5083,10 @@
     </row>
     <row r="15" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>94</v>
+        <v>230</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -4853,10 +5148,10 @@
     </row>
     <row r="16" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>95</v>
+        <v>231</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -4918,10 +5213,10 @@
     </row>
     <row r="17" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>96</v>
+        <v>232</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -4983,10 +5278,10 @@
     </row>
     <row r="18" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>97</v>
+        <v>233</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -5048,10 +5343,10 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>98</v>
+        <v>234</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
@@ -5113,10 +5408,10 @@
     </row>
     <row r="20" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>99</v>
+        <v>235</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -5178,13 +5473,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06482146-3F5D-47DF-9B90-B5700E0EE57E}">
-  <dimension ref="A1:O11"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{06482146-3F5D-47DF-9B90-B5700E0EE57E}">
+  <dimension ref="A1:P11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="E7" sqref="E7"/>
@@ -5192,20 +5487,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="3" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="14" width="12.5703125" style="3" collapsed="1"/>
-    <col min="15" max="15" width="19.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="16" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="36.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" style="3" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="10" max="14" style="3" width="12.5703125" collapsed="true"/>
+    <col min="15" max="15" customWidth="true" style="3" width="19.7109375" collapsed="true"/>
+    <col min="16" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:15" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5257,7 +5552,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>170</v>
+        <v>236</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -5298,7 +5593,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>171</v>
+        <v>237</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -5339,7 +5634,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>172</v>
+        <v>238</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -5381,7 +5676,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>173</v>
+        <v>239</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -5423,7 +5718,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>174</v>
+        <v>240</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -5462,10 +5757,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>175</v>
+        <v>241</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -5507,7 +5802,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>176</v>
+        <v>242</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -5548,7 +5843,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>177</v>
+        <v>243</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -5589,7 +5884,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>178</v>
+        <v>244</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -5630,7 +5925,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>179</v>
+        <v>245</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -5667,13 +5962,13 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F6E92C-F0B2-419E-A8FB-B67C2DE09DC4}">
-  <dimension ref="A1:Q13"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0F6E92C-F0B2-419E-A8FB-B67C2DE09DC4}">
+  <dimension ref="A1:R13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="D2" sqref="D2:D13"/>
@@ -5681,21 +5976,21 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="36.140625" style="3" customWidth="1" collapsed="1"/>
-    <col min="6" max="7" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="8" max="8" width="12.5703125" style="3" collapsed="1"/>
-    <col min="9" max="9" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="10" max="15" width="12.5703125" style="3" collapsed="1"/>
-    <col min="16" max="16" width="15.42578125" style="3" customWidth="1" collapsed="1"/>
-    <col min="17" max="17" width="15" style="3" customWidth="1" collapsed="1"/>
-    <col min="18" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" customWidth="true" style="3" width="36.140625" collapsed="true"/>
+    <col min="6" max="7" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="8" max="8" style="3" width="12.5703125" collapsed="true"/>
+    <col min="9" max="9" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="10" max="15" style="3" width="12.5703125" collapsed="true"/>
+    <col min="16" max="16" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="17" max="17" customWidth="true" style="3" width="15.0" collapsed="true"/>
+    <col min="18" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -5753,7 +6048,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>158</v>
+        <v>246</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -5800,7 +6095,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>159</v>
+        <v>247</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -5847,7 +6142,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>160</v>
+        <v>248</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -5895,7 +6190,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>161</v>
+        <v>249</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -5943,7 +6238,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>162</v>
+        <v>250</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -5991,7 +6286,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>163</v>
+        <v>251</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -6039,7 +6334,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>164</v>
+        <v>252</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6086,7 +6381,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>165</v>
+        <v>253</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -6133,7 +6428,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>166</v>
+        <v>254</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -6180,7 +6475,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>167</v>
+        <v>255</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -6227,7 +6522,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>168</v>
+        <v>256</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -6274,7 +6569,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>169</v>
+        <v>257</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -6318,13 +6613,13 @@
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475D3EEC-13EC-491F-9A96-22DFFF4616CF}">
-  <dimension ref="A1:Q8"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{475D3EEC-13EC-491F-9A96-22DFFF4616CF}">
+  <dimension ref="A1:R8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="I8" sqref="I8:J8"/>
@@ -6332,20 +6627,20 @@
   </sheetViews>
   <sheetFormatPr defaultColWidth="12.5703125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" style="3" collapsed="1"/>
-    <col min="2" max="2" width="25.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="3" max="3" width="18.28515625" style="3" customWidth="1" collapsed="1"/>
-    <col min="4" max="4" width="9.7109375" style="3" customWidth="1" collapsed="1"/>
-    <col min="5" max="5" width="12.5703125" style="3" collapsed="1"/>
-    <col min="6" max="6" width="13.85546875" style="3" customWidth="1" collapsed="1"/>
-    <col min="7" max="7" width="12.5703125" style="3" collapsed="1"/>
-    <col min="8" max="8" width="11.7109375" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="9" max="9" width="15.42578125" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="10" max="10" width="14.85546875" style="3" bestFit="1" customWidth="1" collapsed="1"/>
-    <col min="11" max="16384" width="12.5703125" style="3" collapsed="1"/>
+    <col min="1" max="1" style="3" width="12.5703125" collapsed="true"/>
+    <col min="2" max="2" customWidth="true" style="3" width="25.28515625" collapsed="true"/>
+    <col min="3" max="3" customWidth="true" style="3" width="18.28515625" collapsed="true"/>
+    <col min="4" max="4" customWidth="true" style="3" width="9.7109375" collapsed="true"/>
+    <col min="5" max="5" style="3" width="12.5703125" collapsed="true"/>
+    <col min="6" max="6" customWidth="true" style="3" width="13.85546875" collapsed="true"/>
+    <col min="7" max="7" style="3" width="12.5703125" collapsed="true"/>
+    <col min="8" max="8" bestFit="true" customWidth="true" style="3" width="11.7109375" collapsed="true"/>
+    <col min="9" max="9" bestFit="true" customWidth="true" style="3" width="15.42578125" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" style="3" width="14.85546875" collapsed="true"/>
+    <col min="11" max="16384" style="3" width="12.5703125" collapsed="true"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" s="1" customFormat="1" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row customFormat="1" customHeight="1" ht="21.75" r="1" s="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -6403,7 +6698,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>144</v>
+        <v>265</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6450,7 +6745,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>145</v>
+        <v>266</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6497,7 +6792,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>146</v>
+        <v>267</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6544,7 +6839,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>147</v>
+        <v>268</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -6591,7 +6886,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>148</v>
+        <v>269</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -6638,7 +6933,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>149</v>
+        <v>270</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -6685,7 +6980,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>150</v>
+        <v>271</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6728,6 +7023,6 @@
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
 </file>
--- a/KatalonData/VLinkSmokeDataACH.xlsx
+++ b/KatalonData/VLinkSmokeDataACH.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1979" uniqueCount="279">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="335">
   <si>
     <t>Result</t>
   </si>
@@ -883,6 +883,174 @@
   </si>
   <si>
     <t>Thu May 16 01:09:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:23:17 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:23:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:23:50 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:24:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:24:22 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:24:38 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:24:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:25:11 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:25:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:25:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:26:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:26:16 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:26:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:26:49 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:27:06 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:27:33 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:28:00 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:28:27 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:28:54 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:29:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:29:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:30:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:30:44 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:31:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:31:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:32:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:32:39 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:33:08 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:33:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:34:18 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:34:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:35:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:36:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:36:55 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:37:34 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:38:13 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:38:41 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:39:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:39:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:40:12 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:40:42 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:41:10 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:41:40 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:41:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:42:15 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:42:32 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:42:48 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:43:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:43:21 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:43:37 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:44:04 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:44:31 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:44:59 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:45:30 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:45:58 EDT 2024</t>
+  </si>
+  <si>
+    <t>Mon May 27 19:46:25 EDT 2024</t>
   </si>
 </sst>
 </file>
@@ -1342,7 +1510,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>182</v>
+        <v>279</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1389,7 +1557,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>183</v>
+        <v>280</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1436,7 +1604,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>184</v>
+        <v>281</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1483,7 +1651,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>185</v>
+        <v>282</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1530,7 +1698,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>186</v>
+        <v>283</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1577,7 +1745,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>187</v>
+        <v>284</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1624,7 +1792,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>188</v>
+        <v>285</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1756,7 +1924,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>272</v>
+        <v>328</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1803,7 +1971,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>273</v>
+        <v>329</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1850,7 +2018,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>274</v>
+        <v>330</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1897,7 +2065,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>275</v>
+        <v>331</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1944,7 +2112,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>276</v>
+        <v>332</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1991,7 +2159,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>277</v>
+        <v>333</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2038,7 +2206,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>278</v>
+        <v>334</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2166,7 +2334,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>258</v>
+        <v>314</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2213,7 +2381,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>259</v>
+        <v>315</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2260,7 +2428,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>260</v>
+        <v>316</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2307,7 +2475,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>261</v>
+        <v>317</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2354,7 +2522,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>262</v>
+        <v>318</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2401,7 +2569,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>263</v>
+        <v>319</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2448,7 +2616,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>264</v>
+        <v>320</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2576,7 +2744,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>189</v>
+        <v>286</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2623,7 +2791,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>190</v>
+        <v>287</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2670,7 +2838,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>191</v>
+        <v>288</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2717,7 +2885,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2764,7 +2932,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>193</v>
+        <v>290</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2811,7 +2979,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>194</v>
+        <v>291</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2858,7 +3026,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>195</v>
+        <v>292</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2986,7 +3154,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>196</v>
+        <v>293</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3033,7 +3201,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>197</v>
+        <v>294</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3080,7 +3248,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>198</v>
+        <v>295</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3127,7 +3295,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>199</v>
+        <v>296</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3174,7 +3342,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>200</v>
+        <v>297</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3221,7 +3389,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>201</v>
+        <v>298</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3268,7 +3436,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>202</v>
+        <v>299</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3396,7 +3564,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>203</v>
+        <v>300</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3443,7 +3611,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>204</v>
+        <v>301</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3490,7 +3658,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>205</v>
+        <v>302</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3537,7 +3705,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>206</v>
+        <v>303</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3584,7 +3752,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3631,7 +3799,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>208</v>
+        <v>305</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3678,7 +3846,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>209</v>
+        <v>306</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3806,7 +3974,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>210</v>
+        <v>307</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3853,7 +4021,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>211</v>
+        <v>308</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3900,7 +4068,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>212</v>
+        <v>309</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3947,7 +4115,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>213</v>
+        <v>310</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3994,7 +4162,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>214</v>
+        <v>311</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4041,7 +4209,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>215</v>
+        <v>312</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4088,7 +4256,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>216</v>
+        <v>313</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6698,7 +6866,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>265</v>
+        <v>321</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6745,7 +6913,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>266</v>
+        <v>322</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6792,7 +6960,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>267</v>
+        <v>323</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6839,7 +7007,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>268</v>
+        <v>324</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -6886,7 +7054,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>269</v>
+        <v>325</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -6933,7 +7101,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>270</v>
+        <v>326</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -6980,7 +7148,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>271</v>
+        <v>327</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>

--- a/KatalonData/VLinkSmokeDataACH.xlsx
+++ b/KatalonData/VLinkSmokeDataACH.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2203" uniqueCount="335">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="544">
   <si>
     <t>Result</t>
   </si>
@@ -1051,6 +1051,633 @@
   </si>
   <si>
     <t>Mon May 27 19:46:25 EDT 2024</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:41:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:43:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:46:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:48:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:50:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:52:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:54:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:57:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:57:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:57:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:57:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:57:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:57:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:57:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 00:57:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:01:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:04:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:08:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:12:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:17:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:21:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:23:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:28:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:32:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:37:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:41:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:43:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:48:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:52:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 01:59:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:05:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:08:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:14:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:17:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:21:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:25:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:25:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:25:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:26:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:27:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:32:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:34:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:38:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:43:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:47:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:49:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:52:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:54:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:56:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 02:58:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:00:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:03:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:05:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:07:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:09:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:14:08 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:18:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:22:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:27:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 03:29:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:40 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:31:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:35 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:32:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:33:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:33:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:33:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:33:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:33:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:33:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:33:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:33:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:33:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:33:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:33:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:33:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:49 EDT 2025</t>
+  </si>
+  <si>
+    <t>Thu Aug 21 22:34:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:01:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:24 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:02:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:03:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:03:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:03:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:03:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:03:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:03:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:03:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:03:58 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:04:07 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:04:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:04:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:04:33 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:04:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:04:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:04:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:05:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:05:29 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:05:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:05:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:06:06 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:06:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:06:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:06:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:06:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:07:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:07:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:07:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:07:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:07:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:07:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:07:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:07:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:07:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:08:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:08:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:08:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:08:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:08:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:08:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:08:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:09:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 22 18:09:09 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -1510,7 +2137,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>279</v>
+        <v>488</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1557,7 +2184,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>489</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -1604,7 +2231,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>281</v>
+        <v>490</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -1651,7 +2278,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>282</v>
+        <v>491</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -1698,7 +2325,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>283</v>
+        <v>492</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -1745,7 +2372,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>284</v>
+        <v>493</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -1792,7 +2419,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>285</v>
+        <v>494</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -1924,7 +2551,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>328</v>
+        <v>537</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -1971,7 +2598,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>329</v>
+        <v>538</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2018,7 +2645,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>330</v>
+        <v>539</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2065,7 +2692,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>331</v>
+        <v>540</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2112,7 +2739,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>332</v>
+        <v>541</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2159,7 +2786,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>333</v>
+        <v>542</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2206,7 +2833,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>334</v>
+        <v>543</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2334,7 +2961,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>314</v>
+        <v>523</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2381,7 +3008,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>315</v>
+        <v>524</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2428,7 +3055,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>316</v>
+        <v>525</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2475,7 +3102,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>317</v>
+        <v>526</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2522,7 +3149,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>318</v>
+        <v>527</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2569,7 +3196,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>319</v>
+        <v>528</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2616,7 +3243,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>320</v>
+        <v>529</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2744,7 +3371,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>286</v>
+        <v>495</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2791,7 +3418,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>287</v>
+        <v>496</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2838,7 +3465,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>288</v>
+        <v>497</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2885,7 +3512,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>289</v>
+        <v>498</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2932,7 +3559,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>290</v>
+        <v>499</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2979,7 +3606,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>291</v>
+        <v>500</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3026,7 +3653,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>292</v>
+        <v>501</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3154,7 +3781,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>293</v>
+        <v>502</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3201,7 +3828,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>294</v>
+        <v>503</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3248,7 +3875,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>295</v>
+        <v>504</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3295,7 +3922,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>296</v>
+        <v>505</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3342,7 +3969,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>297</v>
+        <v>506</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3389,7 +4016,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>298</v>
+        <v>507</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3436,7 +4063,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>299</v>
+        <v>508</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3564,7 +4191,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>300</v>
+        <v>509</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3611,7 +4238,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>301</v>
+        <v>510</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3658,7 +4285,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>302</v>
+        <v>511</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3705,7 +4332,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>303</v>
+        <v>512</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3752,7 +4379,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>304</v>
+        <v>513</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3799,7 +4426,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>305</v>
+        <v>514</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3846,7 +4473,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>306</v>
+        <v>515</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3974,7 +4601,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>307</v>
+        <v>516</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4021,7 +4648,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>308</v>
+        <v>517</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4068,7 +4695,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>309</v>
+        <v>518</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4115,7 +4742,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>310</v>
+        <v>519</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4162,7 +4789,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>311</v>
+        <v>520</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4209,7 +4836,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>312</v>
+        <v>521</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4256,7 +4883,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>313</v>
+        <v>522</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4405,7 +5032,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>217</v>
+        <v>370</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4470,7 +5097,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>218</v>
+        <v>371</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4535,7 +5162,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>219</v>
+        <v>372</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4601,7 +5228,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>220</v>
+        <v>373</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4667,7 +5294,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>221</v>
+        <v>374</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4733,7 +5360,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>222</v>
+        <v>375</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4799,7 +5426,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>223</v>
+        <v>376</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4864,7 +5491,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>224</v>
+        <v>377</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -4929,7 +5556,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>225</v>
+        <v>378</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -4994,7 +5621,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>226</v>
+        <v>379</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -5059,7 +5686,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>227</v>
+        <v>380</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -5124,7 +5751,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>228</v>
+        <v>381</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -5189,7 +5816,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>229</v>
+        <v>382</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
@@ -5254,7 +5881,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>383</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -5319,7 +5946,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>231</v>
+        <v>384</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -5384,7 +6011,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>232</v>
+        <v>385</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -5449,7 +6076,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>233</v>
+        <v>386</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -5511,10 +6138,10 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B19" t="s">
-        <v>234</v>
+        <v>387</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
@@ -5579,7 +6206,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>235</v>
+        <v>388</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -5720,7 +6347,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>236</v>
+        <v>389</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -5761,7 +6388,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>237</v>
+        <v>390</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -5799,10 +6426,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B4" t="s">
-        <v>238</v>
+        <v>391</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -5841,10 +6468,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>239</v>
+        <v>392</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -5886,7 +6513,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>240</v>
+        <v>393</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -5925,10 +6552,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B7" t="s">
-        <v>241</v>
+        <v>394</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -5970,7 +6597,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>242</v>
+        <v>395</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6008,10 +6635,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B9" t="s">
-        <v>243</v>
+        <v>396</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -6052,7 +6679,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>244</v>
+        <v>397</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -6090,10 +6717,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>245</v>
+        <v>398</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -6216,7 +6843,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>246</v>
+        <v>399</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6263,7 +6890,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>247</v>
+        <v>400</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6310,7 +6937,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>248</v>
+        <v>401</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6355,10 +6982,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B5" t="s">
-        <v>249</v>
+        <v>402</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -6403,10 +7030,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B6" t="s">
-        <v>250</v>
+        <v>403</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -6454,7 +7081,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>251</v>
+        <v>404</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -6499,10 +7126,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B8" t="s">
-        <v>252</v>
+        <v>405</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6549,7 +7176,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>253</v>
+        <v>406</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -6596,7 +7223,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>254</v>
+        <v>407</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -6640,10 +7267,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>32</v>
+        <v>80</v>
       </c>
       <c r="B11" t="s">
-        <v>255</v>
+        <v>408</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -6690,7 +7317,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>256</v>
+        <v>409</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -6737,7 +7364,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>257</v>
+        <v>410</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -6866,7 +7493,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>321</v>
+        <v>530</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6913,7 +7540,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>322</v>
+        <v>531</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6960,7 +7587,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>323</v>
+        <v>532</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -7007,7 +7634,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>324</v>
+        <v>533</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -7054,7 +7681,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>325</v>
+        <v>534</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -7101,7 +7728,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>326</v>
+        <v>535</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -7148,7 +7775,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>327</v>
+        <v>536</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>

--- a/KatalonData/VLinkSmokeDataACH.xlsx
+++ b/KatalonData/VLinkSmokeDataACH.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3039" uniqueCount="544">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3427" uniqueCount="641">
   <si>
     <t>Result</t>
   </si>
@@ -1678,6 +1678,297 @@
   </si>
   <si>
     <t>Fri Aug 22 18:09:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:39:12 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:39:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:39:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:39:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:39:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:39:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:39:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:39:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:39:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:39:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:40:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:40:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:40:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:40:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:40:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:40:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:40:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:40:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:41:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:41:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:41:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:41:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:41:39 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:41:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:41:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:42:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:42:23 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:42:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:42:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:42:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:43:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:43:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:43:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:43:50 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:44:03 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:44:16 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:44:21 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:44:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:44:32 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:44:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:44:43 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:44:48 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:44:54 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:44:59 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:45:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:45:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:45:15 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:45:20 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:45:25 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:45:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:45:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:45:41 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:45:46 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:45:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:45:57 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:13 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:17 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:26 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:30 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:34 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:38 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:51 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:46:55 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:47:00 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:47:04 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:47:09 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:47:14 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:47:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:47:22 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:47:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:47:31 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:47:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:47:45 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:47:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:48:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:48:11 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:48:19 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:48:28 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:48:37 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:48:42 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:48:47 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:48:52 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:48:56 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:49:01 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:49:05 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:49:10 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:49:18 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:49:27 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:49:36 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:49:44 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:49:53 EDT 2025</t>
+  </si>
+  <si>
+    <t>Fri Aug 29 12:50:02 EDT 2025</t>
   </si>
 </sst>
 </file>
@@ -2137,7 +2428,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>488</v>
+        <v>544</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2184,7 +2475,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>489</v>
+        <v>545</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2231,7 +2522,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>490</v>
+        <v>546</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2278,7 +2569,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>491</v>
+        <v>547</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2325,7 +2616,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>492</v>
+        <v>548</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2372,7 +2663,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>493</v>
+        <v>549</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2419,7 +2710,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>494</v>
+        <v>550</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2551,7 +2842,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>537</v>
+        <v>634</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2598,7 +2889,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>538</v>
+        <v>635</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2645,7 +2936,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>539</v>
+        <v>636</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2692,7 +2983,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>540</v>
+        <v>637</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2739,7 +3030,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>541</v>
+        <v>638</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2786,7 +3077,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>542</v>
+        <v>639</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2833,7 +3124,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>543</v>
+        <v>640</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2961,7 +3252,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>523</v>
+        <v>620</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3008,7 +3299,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>524</v>
+        <v>621</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3055,7 +3346,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>525</v>
+        <v>622</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3102,7 +3393,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>526</v>
+        <v>623</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3149,7 +3440,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>527</v>
+        <v>624</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3196,7 +3487,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>528</v>
+        <v>625</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3243,7 +3534,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>529</v>
+        <v>626</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3371,7 +3662,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>495</v>
+        <v>551</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3418,7 +3709,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>496</v>
+        <v>552</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3465,7 +3756,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>497</v>
+        <v>553</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3512,7 +3803,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>498</v>
+        <v>554</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3559,7 +3850,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>499</v>
+        <v>555</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3606,7 +3897,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>500</v>
+        <v>556</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3653,7 +3944,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>501</v>
+        <v>557</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3781,7 +4072,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>502</v>
+        <v>558</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3828,7 +4119,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>503</v>
+        <v>559</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3875,7 +4166,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>504</v>
+        <v>560</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3922,7 +4213,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>505</v>
+        <v>561</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3969,7 +4260,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>506</v>
+        <v>562</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4016,7 +4307,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>507</v>
+        <v>563</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4063,7 +4354,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>508</v>
+        <v>564</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4191,7 +4482,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>509</v>
+        <v>565</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4238,7 +4529,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>510</v>
+        <v>566</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4285,7 +4576,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>511</v>
+        <v>567</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4332,7 +4623,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>512</v>
+        <v>568</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4379,7 +4670,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>513</v>
+        <v>569</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4426,7 +4717,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>514</v>
+        <v>570</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4473,7 +4764,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>515</v>
+        <v>571</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4601,7 +4892,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>516</v>
+        <v>572</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4648,7 +4939,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>517</v>
+        <v>573</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4695,7 +4986,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>518</v>
+        <v>574</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4742,7 +5033,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>519</v>
+        <v>575</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4789,7 +5080,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>520</v>
+        <v>576</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4836,7 +5127,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>521</v>
+        <v>577</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4883,7 +5174,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>522</v>
+        <v>578</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -5032,7 +5323,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>370</v>
+        <v>579</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -5097,7 +5388,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>371</v>
+        <v>580</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -5162,7 +5453,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>372</v>
+        <v>581</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -5228,7 +5519,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>373</v>
+        <v>582</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -5294,7 +5585,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>374</v>
+        <v>583</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -5360,7 +5651,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>375</v>
+        <v>584</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -5426,7 +5717,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>376</v>
+        <v>585</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -5491,7 +5782,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>377</v>
+        <v>586</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -5556,7 +5847,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>378</v>
+        <v>587</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -5621,7 +5912,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>379</v>
+        <v>588</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -5686,7 +5977,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>380</v>
+        <v>589</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -5751,7 +6042,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>381</v>
+        <v>590</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -5816,7 +6107,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>382</v>
+        <v>591</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
@@ -5881,7 +6172,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>383</v>
+        <v>592</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -5946,7 +6237,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>384</v>
+        <v>593</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -6011,7 +6302,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>385</v>
+        <v>594</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -6076,7 +6367,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>386</v>
+        <v>595</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -6138,10 +6429,10 @@
     </row>
     <row r="19" spans="1:24" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>387</v>
+        <v>596</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
@@ -6206,7 +6497,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>388</v>
+        <v>597</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -6347,7 +6638,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>389</v>
+        <v>598</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6388,7 +6679,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>390</v>
+        <v>599</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6426,10 +6717,10 @@
     </row>
     <row r="4" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>391</v>
+        <v>600</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6468,10 +6759,10 @@
     </row>
     <row r="5" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>392</v>
+        <v>601</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -6513,7 +6804,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>393</v>
+        <v>602</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -6552,10 +6843,10 @@
     </row>
     <row r="7" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>394</v>
+        <v>603</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -6597,7 +6888,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>395</v>
+        <v>604</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6635,10 +6926,10 @@
     </row>
     <row r="9" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>396</v>
+        <v>605</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -6679,7 +6970,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>397</v>
+        <v>606</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -6717,10 +7008,10 @@
     </row>
     <row r="11" spans="1:15" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>398</v>
+        <v>607</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -6843,7 +7134,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>399</v>
+        <v>608</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6890,7 +7181,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>400</v>
+        <v>609</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6937,7 +7228,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>401</v>
+        <v>610</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6982,10 +7273,10 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>402</v>
+        <v>611</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -7030,10 +7321,10 @@
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>403</v>
+        <v>612</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -7081,7 +7372,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>404</v>
+        <v>613</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -7126,10 +7417,10 @@
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>405</v>
+        <v>614</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -7176,7 +7467,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>406</v>
+        <v>615</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -7223,7 +7514,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>407</v>
+        <v>616</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -7267,10 +7558,10 @@
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>80</v>
+        <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>408</v>
+        <v>617</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -7317,7 +7608,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>409</v>
+        <v>618</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -7364,7 +7655,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>410</v>
+        <v>619</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -7493,7 +7784,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>530</v>
+        <v>627</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -7540,7 +7831,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>531</v>
+        <v>628</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -7587,7 +7878,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>532</v>
+        <v>629</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -7634,7 +7925,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>533</v>
+        <v>630</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -7681,7 +7972,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>534</v>
+        <v>631</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -7728,7 +8019,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>535</v>
+        <v>632</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -7775,7 +8066,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>536</v>
+        <v>633</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>

--- a/KatalonData/VLinkSmokeDataACH.xlsx
+++ b/KatalonData/VLinkSmokeDataACH.xlsx
@@ -46,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3427" uniqueCount="641">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4039" uniqueCount="794">
   <si>
     <t>Result</t>
   </si>
@@ -1969,6 +1969,465 @@
   </si>
   <si>
     <t>Fri Aug 29 12:50:02 EDT 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:05:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:05:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:05:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:06:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:06:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:06:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:06:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:06:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:06:32 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:06:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:06:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:06:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:06:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:07:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:07:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:07:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:07:27 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:07:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:07:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:08:01 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:08:13 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:08:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:08:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:08:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:09:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:09:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:09:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:09:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:09:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:10:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:10:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:10:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:10:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:11:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:11:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:11:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:11:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:11:53 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:11:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:12:05 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:12:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:12:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:12:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:12:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:12:38 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:12:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:12:51 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:12:58 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:13:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:13:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:13:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:13:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:13:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:13:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:13:44 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:13:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:13:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:14:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:14:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:14:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:14:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:14:22 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:14:28 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:14:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:14:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:14:45 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:14:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:14:57 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:15:03 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:15:09 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:15:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:15:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:15:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:15:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:15:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:15:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:15:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:15:59 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:16:10 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:16:21 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:16:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:16:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:16:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:17:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:17:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:17:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:17:23 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:17:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:17:34 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:17:40 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:17:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:18:02 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:18:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:18:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:18:35 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:18:46 EST 2025</t>
+  </si>
+  <si>
+    <t>Sun Nov 09 12:18:56 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:53:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:53:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:53:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:53:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:53:31 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:53:36 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:53:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:53:48 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:53:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:54:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:54:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:54:11 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:54:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:54:24 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:54:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:54:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:54:55 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:55:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:55:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:55:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:55:42 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:55:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:56:07 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:56:17 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:56:29 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:56:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:56:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:57:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:57:15 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:57:33 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:57:50 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:58:08 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:58:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:58:43 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:59:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:59:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:59:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:59:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 13:59:52 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:00:04 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:00:19 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:00:30 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:00:41 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:00:47 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:00:54 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:01:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:01:06 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:01:12 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:01:18 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:01:25 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:01:37 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:01:49 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:02:00 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:02:14 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:02:26 EST 2025</t>
+  </si>
+  <si>
+    <t>Fri Nov 14 14:02:37 EST 2025</t>
   </si>
 </sst>
 </file>
@@ -2428,7 +2887,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>544</v>
+        <v>738</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2475,7 +2934,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>545</v>
+        <v>739</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2522,7 +2981,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>546</v>
+        <v>740</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2569,7 +3028,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>547</v>
+        <v>741</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -2616,7 +3075,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>548</v>
+        <v>742</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -2663,7 +3122,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>549</v>
+        <v>743</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -2710,7 +3169,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>550</v>
+        <v>744</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -2842,7 +3301,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>634</v>
+        <v>787</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -2889,7 +3348,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>635</v>
+        <v>788</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -2936,7 +3395,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>636</v>
+        <v>789</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -2983,7 +3442,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>637</v>
+        <v>790</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3030,7 +3489,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>638</v>
+        <v>791</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3077,7 +3536,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>639</v>
+        <v>792</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3124,7 +3583,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>640</v>
+        <v>793</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3252,7 +3711,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>620</v>
+        <v>773</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3299,7 +3758,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>621</v>
+        <v>774</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3346,7 +3805,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>622</v>
+        <v>775</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3393,7 +3852,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>623</v>
+        <v>776</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3440,7 +3899,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>624</v>
+        <v>777</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3487,7 +3946,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>625</v>
+        <v>778</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3534,7 +3993,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>626</v>
+        <v>779</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -3662,7 +4121,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>551</v>
+        <v>745</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -3709,7 +4168,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>552</v>
+        <v>746</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -3756,7 +4215,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>553</v>
+        <v>747</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -3803,7 +4262,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>554</v>
+        <v>748</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -3850,7 +4309,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>555</v>
+        <v>749</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -3897,7 +4356,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>556</v>
+        <v>750</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -3944,7 +4403,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>557</v>
+        <v>751</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4072,7 +4531,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>558</v>
+        <v>752</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4119,7 +4578,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>559</v>
+        <v>753</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4166,7 +4625,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>560</v>
+        <v>754</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4213,7 +4672,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>561</v>
+        <v>755</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4260,7 +4719,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>562</v>
+        <v>756</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4307,7 +4766,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>563</v>
+        <v>757</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4354,7 +4813,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>564</v>
+        <v>758</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4482,7 +4941,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>565</v>
+        <v>759</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4529,7 +4988,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>566</v>
+        <v>760</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4576,7 +5035,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>567</v>
+        <v>761</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -4623,7 +5082,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>568</v>
+        <v>762</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -4670,7 +5129,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>569</v>
+        <v>763</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -4717,7 +5176,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>570</v>
+        <v>764</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -4764,7 +5223,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>571</v>
+        <v>765</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -4892,7 +5351,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>572</v>
+        <v>766</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -4939,7 +5398,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>573</v>
+        <v>767</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -4986,7 +5445,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>574</v>
+        <v>768</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -5033,7 +5492,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>575</v>
+        <v>769</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -5080,7 +5539,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>576</v>
+        <v>770</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -5127,7 +5586,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>577</v>
+        <v>771</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -5174,7 +5633,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>578</v>
+        <v>772</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -5323,7 +5782,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>579</v>
+        <v>676</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -5388,7 +5847,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>580</v>
+        <v>677</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -5453,7 +5912,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>581</v>
+        <v>678</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -5519,7 +5978,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>582</v>
+        <v>679</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -5585,7 +6044,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>583</v>
+        <v>680</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -5651,7 +6110,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>584</v>
+        <v>681</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -5717,7 +6176,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>585</v>
+        <v>682</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -5782,7 +6241,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>586</v>
+        <v>683</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -5847,7 +6306,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>587</v>
+        <v>684</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -5912,7 +6371,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>588</v>
+        <v>685</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -5977,7 +6436,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>589</v>
+        <v>686</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -6042,7 +6501,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>590</v>
+        <v>687</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -6107,7 +6566,7 @@
         <v>32</v>
       </c>
       <c r="B14" t="s">
-        <v>591</v>
+        <v>688</v>
       </c>
       <c r="D14" s="3" t="s">
         <v>17</v>
@@ -6172,7 +6631,7 @@
         <v>32</v>
       </c>
       <c r="B15" t="s">
-        <v>592</v>
+        <v>689</v>
       </c>
       <c r="D15" s="3" t="s">
         <v>17</v>
@@ -6237,7 +6696,7 @@
         <v>32</v>
       </c>
       <c r="B16" t="s">
-        <v>593</v>
+        <v>690</v>
       </c>
       <c r="D16" s="3" t="s">
         <v>17</v>
@@ -6302,7 +6761,7 @@
         <v>32</v>
       </c>
       <c r="B17" t="s">
-        <v>594</v>
+        <v>691</v>
       </c>
       <c r="D17" s="3" t="s">
         <v>17</v>
@@ -6367,7 +6826,7 @@
         <v>32</v>
       </c>
       <c r="B18" t="s">
-        <v>595</v>
+        <v>692</v>
       </c>
       <c r="D18" s="3" t="s">
         <v>17</v>
@@ -6432,7 +6891,7 @@
         <v>32</v>
       </c>
       <c r="B19" t="s">
-        <v>596</v>
+        <v>693</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>17</v>
@@ -6497,7 +6956,7 @@
         <v>32</v>
       </c>
       <c r="B20" t="s">
-        <v>597</v>
+        <v>694</v>
       </c>
       <c r="D20" s="3" t="s">
         <v>17</v>
@@ -6638,7 +7097,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>598</v>
+        <v>695</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -6679,7 +7138,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>599</v>
+        <v>696</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -6720,7 +7179,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>600</v>
+        <v>697</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -6762,7 +7221,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>601</v>
+        <v>698</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -6804,7 +7263,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>602</v>
+        <v>699</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -6846,7 +7305,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>603</v>
+        <v>700</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -6888,7 +7347,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>604</v>
+        <v>701</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -6929,7 +7388,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>605</v>
+        <v>702</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -6970,7 +7429,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>606</v>
+        <v>703</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -7011,7 +7470,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>607</v>
+        <v>704</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -7134,7 +7593,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>608</v>
+        <v>705</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -7181,7 +7640,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>609</v>
+        <v>706</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -7228,7 +7687,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>610</v>
+        <v>707</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -7276,7 +7735,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>611</v>
+        <v>708</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -7324,7 +7783,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>612</v>
+        <v>709</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -7372,7 +7831,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>613</v>
+        <v>710</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -7420,7 +7879,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>614</v>
+        <v>711</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
@@ -7467,7 +7926,7 @@
         <v>32</v>
       </c>
       <c r="B9" t="s">
-        <v>615</v>
+        <v>712</v>
       </c>
       <c r="D9" s="3" t="s">
         <v>17</v>
@@ -7514,7 +7973,7 @@
         <v>32</v>
       </c>
       <c r="B10" t="s">
-        <v>616</v>
+        <v>713</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>17</v>
@@ -7561,7 +8020,7 @@
         <v>32</v>
       </c>
       <c r="B11" t="s">
-        <v>617</v>
+        <v>714</v>
       </c>
       <c r="D11" s="3" t="s">
         <v>17</v>
@@ -7608,7 +8067,7 @@
         <v>32</v>
       </c>
       <c r="B12" t="s">
-        <v>618</v>
+        <v>715</v>
       </c>
       <c r="D12" s="3" t="s">
         <v>17</v>
@@ -7655,7 +8114,7 @@
         <v>32</v>
       </c>
       <c r="B13" t="s">
-        <v>619</v>
+        <v>716</v>
       </c>
       <c r="D13" s="3" t="s">
         <v>17</v>
@@ -7784,7 +8243,7 @@
         <v>32</v>
       </c>
       <c r="B2" t="s">
-        <v>627</v>
+        <v>780</v>
       </c>
       <c r="D2" s="3" t="s">
         <v>17</v>
@@ -7831,7 +8290,7 @@
         <v>32</v>
       </c>
       <c r="B3" t="s">
-        <v>628</v>
+        <v>781</v>
       </c>
       <c r="D3" s="3" t="s">
         <v>17</v>
@@ -7878,7 +8337,7 @@
         <v>32</v>
       </c>
       <c r="B4" t="s">
-        <v>629</v>
+        <v>782</v>
       </c>
       <c r="D4" s="3" t="s">
         <v>17</v>
@@ -7925,7 +8384,7 @@
         <v>32</v>
       </c>
       <c r="B5" t="s">
-        <v>630</v>
+        <v>783</v>
       </c>
       <c r="D5" s="3" t="s">
         <v>17</v>
@@ -7972,7 +8431,7 @@
         <v>32</v>
       </c>
       <c r="B6" t="s">
-        <v>631</v>
+        <v>784</v>
       </c>
       <c r="D6" s="3" t="s">
         <v>17</v>
@@ -8019,7 +8478,7 @@
         <v>32</v>
       </c>
       <c r="B7" t="s">
-        <v>632</v>
+        <v>785</v>
       </c>
       <c r="D7" s="3" t="s">
         <v>17</v>
@@ -8066,7 +8525,7 @@
         <v>32</v>
       </c>
       <c r="B8" t="s">
-        <v>633</v>
+        <v>786</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>17</v>
